--- a/src/Quadrotor_States2.xlsx
+++ b/src/Quadrotor_States2.xlsx
@@ -428,761 +428,761 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>239.99670394641672</v>
+        <v>240.0054887063018</v>
       </c>
       <c r="B2">
-        <v>249.9983193449938</v>
+        <v>250.00804305218327</v>
       </c>
       <c r="C2">
-        <v>10.864914901403466</v>
+        <v>10.865066011000692</v>
       </c>
       <c r="D2">
-        <v>0.9999943082631729</v>
+        <v>0.9999085846741057</v>
       </c>
       <c r="E2">
-        <v>0.0024110716017094443</v>
+        <v>-0.011537826972071044</v>
       </c>
       <c r="F2">
-        <v>-0.00472852627456758</v>
+        <v>0.007874446579951469</v>
       </c>
       <c r="G2">
-        <v>-5.201918065788946e-9</v>
+        <v>2.525960433510624e-5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>239.98286926754858</v>
+        <v>240.00487883783265</v>
       </c>
       <c r="B3">
-        <v>249.99964531559016</v>
+        <v>249.9893275409291</v>
       </c>
       <c r="C3">
-        <v>11.649784508857818</v>
+        <v>11.650951820165472</v>
       </c>
       <c r="D3">
-        <v>0.9998162880843131</v>
+        <v>0.9996213949776022</v>
       </c>
       <c r="E3">
-        <v>-0.002003375056998576</v>
+        <v>0.027912827853204314</v>
       </c>
       <c r="F3">
-        <v>-0.0205885504209019</v>
+        <v>-0.0009089997508487205</v>
       </c>
       <c r="G3">
-        <v>-0.0002837765688337495</v>
+        <v>0.00026626139923763693</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>239.96773201657967</v>
+        <v>240.00198670229366</v>
       </c>
       <c r="B4">
-        <v>250.00150292064725</v>
+        <v>249.96938797230723</v>
       </c>
       <c r="C4">
-        <v>12.362907017469848</v>
+        <v>12.365117913307849</v>
       </c>
       <c r="D4">
-        <v>0.9997440516480555</v>
+        <v>0.9995261248958033</v>
       </c>
       <c r="E4">
-        <v>-0.002891138044272764</v>
+        <v>0.030840655465116957</v>
       </c>
       <c r="F4">
-        <v>-0.023376663803360422</v>
+        <v>-0.0044640276236466185</v>
       </c>
       <c r="G4">
-        <v>-0.00011757484786659644</v>
+        <v>0.00010096544427241551</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>239.9519595323943</v>
+        <v>239.99898295911967</v>
       </c>
       <c r="B5">
-        <v>250.00343735620015</v>
+        <v>249.94869246876027</v>
       </c>
       <c r="C5">
-        <v>13.010350313473488</v>
+        <v>13.013638531781247</v>
       </c>
       <c r="D5">
-        <v>0.9997027794643694</v>
+        <v>0.9994525240047093</v>
       </c>
       <c r="E5">
-        <v>-0.003119704382979126</v>
+        <v>0.033134427452728356</v>
       </c>
       <c r="F5">
-        <v>-0.025205028839397042</v>
+        <v>-0.004797651442710175</v>
       </c>
       <c r="G5">
-        <v>-0.00019263055684586608</v>
+        <v>0.00012511051918700198</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>239.93536946523267</v>
+        <v>239.99799229767285</v>
       </c>
       <c r="B6">
-        <v>250.0054754058496</v>
+        <v>249.92720740956142</v>
       </c>
       <c r="C6">
-        <v>13.59829493896725</v>
+        <v>13.602524261797527</v>
       </c>
       <c r="D6">
-        <v>0.9996419816740193</v>
+        <v>0.9993816530357674</v>
       </c>
       <c r="E6">
-        <v>-0.0033888168593819708</v>
+        <v>0.035532539240335816</v>
       </c>
       <c r="F6">
-        <v>-0.027379963732384487</v>
+        <v>-0.0016351250518979732</v>
       </c>
       <c r="G6">
-        <v>-5.778270490566615e-5</v>
+        <v>0.00014100492088642424</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>239.917537231872</v>
+        <v>239.99695590253648</v>
       </c>
       <c r="B7">
-        <v>250.0076688293954</v>
+        <v>249.90479679737834</v>
       </c>
       <c r="C7">
-        <v>14.1327718617641</v>
+        <v>14.137422169546449</v>
       </c>
       <c r="D7">
-        <v>0.9995484037944566</v>
+        <v>0.9992842944861353</v>
       </c>
       <c r="E7">
-        <v>-0.0037444398111439376</v>
+        <v>0.038205248722148095</v>
       </c>
       <c r="F7">
-        <v>-0.03032781216233251</v>
+        <v>-0.001761736521247684</v>
       </c>
       <c r="G7">
-        <v>5.905182847828631e-5</v>
+        <v>0.00019531652107795909</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>239.89862826463226</v>
+        <v>239.99574233179433</v>
       </c>
       <c r="B8">
-        <v>250.00999253375366</v>
+        <v>249.87806110631007</v>
       </c>
       <c r="C8">
-        <v>14.618575002091733</v>
+        <v>14.626896602905719</v>
       </c>
       <c r="D8">
-        <v>0.9994573383262862</v>
+        <v>0.9989039595044177</v>
       </c>
       <c r="E8">
-        <v>-0.004075744626627108</v>
+        <v>0.04672192724976696</v>
       </c>
       <c r="F8">
-        <v>-0.03306903313210445</v>
+        <v>-0.0021207118123974435</v>
       </c>
       <c r="G8">
-        <v>-6.24830836920871e-6</v>
+        <v>0.0001809849440817684</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>239.84932327976387</v>
+        <v>239.9944827086574</v>
       </c>
       <c r="B9">
-        <v>250.0126221549377</v>
+        <v>249.8503944059455</v>
       </c>
       <c r="C9">
-        <v>15.08345622106173</v>
+        <v>15.071872967457303</v>
       </c>
       <c r="D9">
-        <v>0.9961705927105593</v>
+        <v>0.9987625642925996</v>
       </c>
       <c r="E9">
-        <v>-0.004656945679437374</v>
+        <v>0.04963274824250498</v>
       </c>
       <c r="F9">
-        <v>-0.08729684222974907</v>
+        <v>-0.0022596500151978085</v>
       </c>
       <c r="G9">
-        <v>2.6921214990617985e-5</v>
+        <v>0.00025991317007576393</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>239.798238770837</v>
+        <v>239.99322011181692</v>
       </c>
       <c r="B10">
-        <v>250.01534704114556</v>
+        <v>249.8223419570691</v>
       </c>
       <c r="C10">
-        <v>15.508380239556104</v>
+        <v>15.478936770321729</v>
       </c>
       <c r="D10">
-        <v>0.9956884857574215</v>
+        <v>0.998671494826719</v>
       </c>
       <c r="E10">
-        <v>-0.004941287467784303</v>
+        <v>0.05149106127051035</v>
       </c>
       <c r="F10">
-        <v>-0.09261396896334721</v>
+        <v>-0.00231712963711739</v>
       </c>
       <c r="G10">
-        <v>3.226358858731494e-5</v>
+        <v>1.7398599895875426e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>239.74536012002727</v>
+        <v>239.99191418588873</v>
       </c>
       <c r="B11">
-        <v>250.01816804148712</v>
+        <v>249.7933272715605</v>
       </c>
       <c r="C11">
-        <v>15.897200040835287</v>
+        <v>15.849476529979126</v>
       </c>
       <c r="D11">
-        <v>0.9951722946211272</v>
+        <v>0.9985130463367223</v>
       </c>
       <c r="E11">
-        <v>-0.0052286419707681135</v>
+        <v>0.05447112987669662</v>
       </c>
       <c r="F11">
-        <v>-0.09798437696022548</v>
+        <v>-0.0024512567284888276</v>
       </c>
       <c r="G11">
-        <v>3.841842129781642e-5</v>
+        <v>2.0500401159908975e-6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>239.69071021022913</v>
+        <v>239.99056558436223</v>
       </c>
       <c r="B12">
-        <v>250.0244810819826</v>
+        <v>249.7633648735148</v>
       </c>
       <c r="C12">
-        <v>16.2537091582235</v>
+        <v>16.18688833353846</v>
       </c>
       <c r="D12">
-        <v>0.9945756340229889</v>
+        <v>0.9983464527059074</v>
       </c>
       <c r="E12">
-        <v>-0.011934907494005897</v>
+        <v>0.057437270331758716</v>
       </c>
       <c r="F12">
-        <v>-0.10330288630109585</v>
+        <v>-0.0025847578850646744</v>
       </c>
       <c r="G12">
-        <v>4.837772858839116e-5</v>
+        <v>2.3876884777263444e-6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>239.6342655100863</v>
+        <v>239.98917546730908</v>
       </c>
       <c r="B13">
-        <v>250.03100201941155</v>
+        <v>249.73248051960547</v>
       </c>
       <c r="C13">
-        <v>16.580758445627563</v>
+        <v>16.494245123869984</v>
       </c>
       <c r="D13">
-        <v>0.9939931317201883</v>
+        <v>0.9981736396045922</v>
       </c>
       <c r="E13">
-        <v>-0.012558180023346813</v>
+        <v>0.060359689775349876</v>
       </c>
       <c r="F13">
-        <v>-0.10868733205711036</v>
+        <v>-0.002716290786665449</v>
       </c>
       <c r="G13">
-        <v>5.691542418433021e-5</v>
+        <v>2.747883340458671e-6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>239.5760383404853</v>
+        <v>239.98774549585585</v>
       </c>
       <c r="B14">
-        <v>250.0377295013756</v>
+        <v>249.70071108349086</v>
       </c>
       <c r="C14">
-        <v>16.881191219289036</v>
+        <v>16.77432375057716</v>
       </c>
       <c r="D14">
-        <v>0.9933843554305998</v>
+        <v>0.9979969005096729</v>
       </c>
       <c r="E14">
-        <v>-0.01317792020033678</v>
+        <v>0.06320826676096324</v>
       </c>
       <c r="F14">
-        <v>-0.11403942783883772</v>
+        <v>-0.002844498501955431</v>
       </c>
       <c r="G14">
-        <v>6.636586944513646e-5</v>
+        <v>3.1286596356109124e-6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>239.51631370034028</v>
+        <v>239.98627793569864</v>
       </c>
       <c r="B15">
-        <v>250.04455939586788</v>
+        <v>249.6681068416105</v>
       </c>
       <c r="C15">
-        <v>17.15757917739769</v>
+        <v>17.02962957007997</v>
       </c>
       <c r="D15">
-        <v>0.9928186627943802</v>
+        <v>0.9978191865668616</v>
       </c>
       <c r="E15">
-        <v>-0.013591469152597832</v>
+        <v>0.06594799402570684</v>
       </c>
       <c r="F15">
-        <v>-0.11880839639122273</v>
+        <v>-0.002967803280911401</v>
       </c>
       <c r="G15">
-        <v>0.00013005822812561934</v>
+        <v>3.523403400136968e-6</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>239.45486158432982</v>
+        <v>239.98477569180505</v>
       </c>
       <c r="B16">
-        <v>250.05158781576108</v>
+        <v>249.63473224042232</v>
       </c>
       <c r="C16">
-        <v>17.412229929202336</v>
+        <v>17.262418495497723</v>
       </c>
       <c r="D16">
-        <v>0.9921743370284183</v>
+        <v>0.9976439376291044</v>
       </c>
       <c r="E16">
-        <v>-0.014187567728928664</v>
+        <v>0.06854198020225062</v>
       </c>
       <c r="F16">
-        <v>-0.12399887126691636</v>
+        <v>-0.0030845421399806503</v>
       </c>
       <c r="G16">
-        <v>0.00014692503548396744</v>
+        <v>3.923951911600692e-6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>239.41265448013894</v>
+        <v>239.98324235949997</v>
       </c>
       <c r="B17">
-        <v>249.92383379670727</v>
+        <v>249.60066702397984</v>
       </c>
       <c r="C17">
-        <v>17.797899594311552</v>
+        <v>17.474717241468266</v>
       </c>
       <c r="D17">
-        <v>0.9687361480765476</v>
+        <v>0.9974751068870886</v>
       </c>
       <c r="E17">
-        <v>0.2340444095250831</v>
+        <v>0.0709508086604734</v>
       </c>
       <c r="F17">
-        <v>-0.07733480540735847</v>
+        <v>-0.003192937792184588</v>
       </c>
       <c r="G17">
-        <v>0.021688135003581077</v>
+        <v>4.318827265904371e-6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>239.3686599930175</v>
+        <v>239.98168226497958</v>
       </c>
       <c r="B18">
-        <v>249.79591996823908</v>
+        <v>249.56600712953585</v>
       </c>
       <c r="C18">
-        <v>18.15781878219732</v>
+        <v>17.668342040434297</v>
       </c>
       <c r="D18">
-        <v>0.9672512521788746</v>
+        <v>0.9973170906053108</v>
       </c>
       <c r="E18">
-        <v>0.23795316923100393</v>
+        <v>0.07313304538652086</v>
       </c>
       <c r="F18">
-        <v>-0.08185463372694732</v>
+        <v>-0.0032911216716727887</v>
       </c>
       <c r="G18">
-        <v>0.027345304999049174</v>
+        <v>4.6936839304746455e-6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>239.3229747458456</v>
+        <v>239.98010050037965</v>
       </c>
       <c r="B19">
-        <v>249.6678916877237</v>
+        <v>249.53086547031714</v>
       </c>
       <c r="C19">
-        <v>18.494215732683006</v>
+        <v>17.844916122534052</v>
       </c>
       <c r="D19">
-        <v>0.9657852945295404</v>
+        <v>0.9971746466450857</v>
       </c>
       <c r="E19">
-        <v>0.24156033437938412</v>
+        <v>0.07504549146880408</v>
       </c>
       <c r="F19">
-        <v>-0.08621209392787181</v>
+        <v>-0.0033771458079456733</v>
       </c>
       <c r="G19">
-        <v>0.03293917322843753</v>
+        <v>5.033561452105831e-6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>239.275855689852</v>
+        <v>239.9785029392296</v>
       </c>
       <c r="B20">
-        <v>249.5398416140029</v>
+        <v>249.49537226293694</v>
       </c>
       <c r="C20">
-        <v>18.808863377359657</v>
+        <v>18.005886290138253</v>
       </c>
       <c r="D20">
-        <v>0.9644013171554976</v>
+        <v>0.9970527339248999</v>
       </c>
       <c r="E20">
-        <v>0.24482765976986626</v>
+        <v>0.07664414031809665</v>
       </c>
       <c r="F20">
-        <v>-0.09010476661381031</v>
+        <v>-0.0034490248818666636</v>
       </c>
       <c r="G20">
-        <v>0.03803256956852672</v>
+        <v>5.3150791817372455e-6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>239.2299865872083</v>
+        <v>239.97689626180974</v>
       </c>
       <c r="B21">
-        <v>249.4140637841309</v>
+        <v>249.4596756124856</v>
       </c>
       <c r="C21">
-        <v>19.09259756621525</v>
+        <v>18.15253878913153</v>
       </c>
       <c r="D21">
-        <v>0.9643444297774927</v>
+        <v>0.9969564317684267</v>
       </c>
       <c r="E21">
-        <v>0.24540197865567578</v>
+        <v>0.07788359569851153</v>
       </c>
       <c r="F21">
-        <v>-0.08950823769137266</v>
+        <v>-0.0035047123703570823</v>
       </c>
       <c r="G21">
-        <v>0.03716174879235709</v>
+        <v>5.519283048221191e-6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>239.1846394105745</v>
+        <v>239.9757049871276</v>
       </c>
       <c r="B22">
-        <v>249.29054893729875</v>
+        <v>249.34399451386338</v>
       </c>
       <c r="C22">
-        <v>19.349554742072158</v>
+        <v>18.430681819097064</v>
       </c>
       <c r="D22">
-        <v>0.9642547937907765</v>
+        <v>0.9736224203341091</v>
       </c>
       <c r="E22">
-        <v>0.24532238823288918</v>
+        <v>0.22765302155570707</v>
       </c>
       <c r="F22">
-        <v>-0.09008214281739257</v>
+        <v>-0.002344597427024989</v>
       </c>
       <c r="G22">
-        <v>0.0385606491675103</v>
+        <v>0.00037316161637441727</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>239.13932810559544</v>
+        <v>239.97441888688095</v>
       </c>
       <c r="B23">
-        <v>249.16896144544128</v>
+        <v>249.2269497937221</v>
       </c>
       <c r="C23">
-        <v>19.584147086731758</v>
+        <v>18.69275699886776</v>
       </c>
       <c r="D23">
-        <v>0.9640578012239369</v>
+        <v>0.9724212378962032</v>
       </c>
       <c r="E23">
-        <v>0.24515912169542214</v>
+        <v>0.2326823810134843</v>
       </c>
       <c r="F23">
-        <v>-0.0913774248046125</v>
+        <v>-0.002557151419175768</v>
       </c>
       <c r="G23">
-        <v>0.041297334185332504</v>
+        <v>0.0006601345906706631</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>239.09443445558787</v>
+        <v>239.9730182700803</v>
       </c>
       <c r="B24">
-        <v>249.04908684389707</v>
+        <v>249.10847323378525</v>
       </c>
       <c r="C24">
-        <v>19.798584153254932</v>
+        <v>18.940802076311535</v>
       </c>
       <c r="D24">
-        <v>0.9639685254172863</v>
+        <v>0.9712127728127671</v>
       </c>
       <c r="E24">
-        <v>0.24507087988470333</v>
+        <v>0.23762547156879266</v>
       </c>
       <c r="F24">
-        <v>-0.09179618326795302</v>
+        <v>-0.002809785564950918</v>
       </c>
       <c r="G24">
-        <v>0.04290650044111517</v>
+        <v>0.001024560084788972</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>239.04977425231763</v>
+        <v>239.97147185591095</v>
       </c>
       <c r="B25">
-        <v>248.93579932207476</v>
+        <v>248.98852037316112</v>
       </c>
       <c r="C25">
-        <v>19.9364013058433</v>
+        <v>19.176699935472733</v>
       </c>
       <c r="D25">
-        <v>0.9632146434043627</v>
+        <v>0.9700092342130158</v>
       </c>
       <c r="E25">
-        <v>0.24448991985329518</v>
+        <v>0.24243800846314537</v>
       </c>
       <c r="F25">
-        <v>-0.09640078986764858</v>
+        <v>-0.0031263089962544847</v>
       </c>
       <c r="G25">
-        <v>0.051835626134864636</v>
+        <v>0.0015122141558332079</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>239.01203839550237</v>
+        <v>239.96977525246493</v>
       </c>
       <c r="B26">
-        <v>248.8308069396786</v>
+        <v>248.86710087296572</v>
       </c>
       <c r="C26">
-        <v>19.999999999098424</v>
+        <v>19.40213409938442</v>
       </c>
       <c r="D26">
-        <v>0.9658749478718499</v>
+        <v>0.9688374419128001</v>
       </c>
       <c r="E26">
-        <v>0.23998353401036918</v>
+        <v>0.2470249583317101</v>
       </c>
       <c r="F26">
-        <v>-0.08627182150742639</v>
+        <v>-0.0034527063769554697</v>
       </c>
       <c r="G26">
-        <v>0.04072358689464025</v>
+        <v>0.0020187305537916</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>238.98102429244727</v>
+        <v>239.96764066853456</v>
       </c>
       <c r="B27">
-        <v>248.7327860145939</v>
+        <v>248.7473237799759</v>
       </c>
       <c r="C27">
-        <v>19.999999999533898</v>
+        <v>19.611184443404834</v>
       </c>
       <c r="D27">
-        <v>0.9683560134680844</v>
+        <v>0.9689700102468797</v>
       </c>
       <c r="E27">
-        <v>0.23599874971679985</v>
+        <v>0.24648074376270723</v>
       </c>
       <c r="F27">
-        <v>-0.07468439500183734</v>
+        <v>-0.004396083870233778</v>
       </c>
       <c r="G27">
-        <v>0.02610976206760916</v>
+        <v>0.003530661738359763</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>238.95017908844375</v>
+        <v>239.9650551615946</v>
       </c>
       <c r="B28">
-        <v>248.63476332184126</v>
+        <v>248.628928923254</v>
       </c>
       <c r="C28">
-        <v>19.99999999956816</v>
+        <v>19.806366510482594</v>
       </c>
       <c r="D28">
-        <v>0.9683817530590081</v>
+        <v>0.9690751318181683</v>
       </c>
       <c r="E28">
-        <v>0.2360058000756336</v>
+        <v>0.2460274895046105</v>
       </c>
       <c r="F28">
-        <v>-0.07427872231195577</v>
+        <v>-0.005376053986508229</v>
       </c>
       <c r="G28">
-        <v>0.02625728204902911</v>
+        <v>0.005194861952294624</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>238.91950944710695</v>
+        <v>239.9550278021346</v>
       </c>
       <c r="B29">
-        <v>248.53673878522414</v>
+        <v>248.51752949076078</v>
       </c>
       <c r="C29">
-        <v>19.999999999540712</v>
+        <v>19.927601523060158</v>
       </c>
       <c r="D29">
-        <v>0.9684084160437127</v>
+        <v>0.9687457102920102</v>
       </c>
       <c r="E29">
-        <v>0.2360131401083428</v>
+        <v>0.2441130627162939</v>
       </c>
       <c r="F29">
-        <v>-0.07385703088139099</v>
+        <v>-0.02199066840730142</v>
       </c>
       <c r="G29">
-        <v>0.026406410068030114</v>
+        <v>0.03361564871786871</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>238.88902248622682</v>
+        <v>239.95457299609689</v>
       </c>
       <c r="B30">
-        <v>248.43871232572832</v>
+        <v>248.41190781593113</v>
       </c>
       <c r="C30">
-        <v>19.999999999559847</v>
+        <v>19.995327679843268</v>
       </c>
       <c r="D30">
-        <v>0.9684360636144874</v>
+        <v>0.9703122025327043</v>
       </c>
       <c r="E30">
-        <v>0.2360207842173545</v>
+        <v>0.24125401975862013</v>
       </c>
       <c r="F30">
-        <v>-0.07341822837781666</v>
+        <v>-0.0010395615503997334</v>
       </c>
       <c r="G30">
-        <v>0.026557036856710466</v>
+        <v>0.0012889795837436196</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>238.85872582247998</v>
+        <v>239.95440941707568</v>
       </c>
       <c r="B31">
-        <v>248.34068386149616</v>
+        <v>248.31365248826282</v>
       </c>
       <c r="C31">
-        <v>19.999999999553125</v>
+        <v>19.999999954803343</v>
       </c>
       <c r="D31">
-        <v>0.9684647629536771</v>
+        <v>0.9715983081968341</v>
       </c>
       <c r="E31">
-        <v>0.23602874750578096</v>
+        <v>0.23607766896407623</v>
       </c>
       <c r="F31">
-        <v>-0.07296111483973923</v>
+        <v>-0.00039323171633810625</v>
       </c>
       <c r="G31">
-        <v>0.026709024687952616</v>
+        <v>0.0003349302815016833</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>238.82862762334503</v>
+        <v>239.95426024858577</v>
       </c>
       <c r="B32">
-        <v>248.24265330802547</v>
+        <v>248.21576733353587</v>
       </c>
       <c r="C32">
-        <v>19.999999999504684</v>
+        <v>19.999957353639928</v>
       </c>
       <c r="D32">
-        <v>0.9684945884463736</v>
+        <v>0.9715947774807931</v>
       </c>
       <c r="E32">
-        <v>0.23603704561971467</v>
+        <v>0.23609215626350832</v>
       </c>
       <c r="F32">
-        <v>-0.07248436541915584</v>
+        <v>-0.000359966838787851</v>
       </c>
       <c r="G32">
-        <v>0.026862196222157138</v>
+        <v>0.0003046354137425542</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>238.80160825164054</v>
+        <v>239.95412363572842</v>
       </c>
       <c r="B33">
-        <v>248.14459082612217</v>
+        <v>248.1178789797612</v>
       </c>
       <c r="C33">
-        <v>19.9999999995415</v>
+        <v>19.99995735998034</v>
       </c>
       <c r="D33">
-        <v>0.9689410820541235</v>
+        <v>0.9715949117455783</v>
       </c>
       <c r="E33">
-        <v>0.23616370800660452</v>
+        <v>0.23609168509871795</v>
       </c>
       <c r="F33">
-        <v>-0.06508620097839236</v>
+        <v>-0.00032965672705788054</v>
       </c>
       <c r="G33">
-        <v>0.028685503273228087</v>
+        <v>0.0002790161981062121</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>238.774838410886</v>
+        <v>239.95399949741363</v>
       </c>
       <c r="B34">
-        <v>248.04652624263133</v>
+        <v>248.0199907142764</v>
       </c>
       <c r="C34">
-        <v>19.99999999958857</v>
+        <v>19.99995736043383</v>
       </c>
       <c r="D34">
-        <v>0.9689768304407267</v>
+        <v>0.9715949785697746</v>
       </c>
       <c r="E34">
-        <v>0.23617287974145126</v>
+        <v>0.23609148173963343</v>
       </c>
       <c r="F34">
-        <v>-0.06448644857083209</v>
+        <v>-0.0002995547638872027</v>
       </c>
       <c r="G34">
-        <v>0.02876889909005495</v>
+        <v>0.00025353770315696513</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States2.xlsx
+++ b/src/Quadrotor_States2.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,922 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17.56919821582187</v>
+        <v>241.3294416283204</v>
       </c>
       <c r="B2">
-        <v>9.99990092162867</v>
+        <v>249.83381950773693</v>
       </c>
       <c r="C2">
-        <v>5.046993153405432</v>
+        <v>12.521498795171782</v>
       </c>
       <c r="D2">
-        <v>0.9999853126119727</v>
+        <v>0.9999905893999985</v>
       </c>
       <c r="E2">
-        <v>5.463132468594745e-6</v>
+        <v>-0.0005814651672554243</v>
       </c>
       <c r="F2">
-        <v>0.004123886883204353</v>
+        <v>-0.004653423551555466</v>
       </c>
       <c r="G2">
-        <v>0.001607907186722155</v>
+        <v>-1.7560234969095898e-6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18.63627644715469</v>
+        <v>240.68531543302356</v>
       </c>
       <c r="B3">
-        <v>9.999871870434534</v>
+        <v>249.52784862700418</v>
       </c>
       <c r="C3">
-        <v>4.93675004791652</v>
+        <v>16.480334140571145</v>
       </c>
       <c r="D3">
-        <v>0.9999139033124037</v>
+        <v>1.000001453931091</v>
       </c>
       <c r="E3">
-        <v>-2.042227472563332e-6</v>
+        <v>0.0004311269216880986</v>
       </c>
       <c r="F3">
-        <v>-0.005199155861859761</v>
+        <v>-0.0002902982441685387</v>
       </c>
       <c r="G3">
-        <v>0.00029562196694323466</v>
+        <v>-0.0017426076241131199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>17.03978872902337</v>
+        <v>240.28226458743686</v>
       </c>
       <c r="B4">
-        <v>9.99988309870539</v>
+        <v>249.29872689348366</v>
       </c>
       <c r="C4">
-        <v>4.8905210860581745</v>
+        <v>19.88456890902656</v>
       </c>
       <c r="D4">
-        <v>0.9999342205955828</v>
+        <v>1.0000034166305543</v>
       </c>
       <c r="E4">
-        <v>1.1598800164575389e-6</v>
+        <v>0.001088708298067168</v>
       </c>
       <c r="F4">
-        <v>0.0037951150283935487</v>
+        <v>-0.0018872572130950252</v>
       </c>
       <c r="G4">
-        <v>0.00023903834902889724</v>
+        <v>-0.000124988743876904</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>17.221494241803292</v>
+        <v>239.82551737395363</v>
       </c>
       <c r="B5">
-        <v>9.999881478035583</v>
+        <v>250.83995532593937</v>
       </c>
       <c r="C5">
-        <v>4.876699271021567</v>
+        <v>22.61707430298972</v>
       </c>
       <c r="D5">
-        <v>0.9999437044211675</v>
+        <v>0.9999856214969297</v>
       </c>
       <c r="E5">
-        <v>-8.13659186142123e-7</v>
+        <v>0.005408975658812984</v>
       </c>
       <c r="F5">
-        <v>-0.0025128325361516604</v>
+        <v>0.0016022596232845726</v>
       </c>
       <c r="G5">
-        <v>0.00019030946837929666</v>
+        <v>-1.9195027410283588e-6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>16.306268095532403</v>
+        <v>241.42728598362734</v>
       </c>
       <c r="B6">
-        <v>9.99989356973515</v>
+        <v>251.9919926003341</v>
       </c>
       <c r="C6">
-        <v>4.878042440973765</v>
+        <v>24.850003865221836</v>
       </c>
       <c r="D6">
-        <v>0.9999487047245339</v>
+        <v>0.9999785608495022</v>
       </c>
       <c r="E6">
-        <v>2.396643005231969e-6</v>
+        <v>0.003977855627525603</v>
       </c>
       <c r="F6">
-        <v>0.0012777209136259093</v>
+        <v>-0.00553207978690501</v>
       </c>
       <c r="G6">
-        <v>0.0012004913395176537</v>
+        <v>-3.076120180341011e-6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>16.040522063714175</v>
+        <v>243.58901740551389</v>
       </c>
       <c r="B7">
-        <v>9.999895491834373</v>
+        <v>252.81149467287202</v>
       </c>
       <c r="C7">
-        <v>4.8777290442855294</v>
+        <v>26.29482261658934</v>
       </c>
       <c r="D7">
-        <v>0.9999608443021336</v>
+        <v>0.9999709666560443</v>
       </c>
       <c r="E7">
-        <v>-4.0659923292564106e-6</v>
+        <v>0.0027908595663249233</v>
       </c>
       <c r="F7">
-        <v>7.321882445230049e-5</v>
+        <v>-0.007363712377355721</v>
       </c>
       <c r="G7">
-        <v>0.0036230476082334713</v>
+        <v>-4.17358312815671e-6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>15.411475316184552</v>
+        <v>245.3498138569839</v>
       </c>
       <c r="B8">
-        <v>9.999881884687298</v>
+        <v>251.176181408878</v>
       </c>
       <c r="C8">
-        <v>4.882187793068942</v>
+        <v>27.363757516494736</v>
       </c>
       <c r="D8">
-        <v>0.9999805034423073</v>
+        <v>0.9999675262667628</v>
       </c>
       <c r="E8">
-        <v>4.841890169255706e-6</v>
+        <v>-0.00557588295655755</v>
       </c>
       <c r="F8">
-        <v>-0.0005278159248955799</v>
+        <v>-0.006006611440629892</v>
       </c>
       <c r="G8">
-        <v>0.002164163968538269</v>
+        <v>-1.8184348712331313e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>15.080502785787342</v>
+        <v>247.1336491150531</v>
       </c>
       <c r="B9">
-        <v>10.009222442098022</v>
+        <v>249.47171905062305</v>
       </c>
       <c r="C9">
-        <v>4.882566790173686</v>
+        <v>27.987095847749455</v>
       </c>
       <c r="D9">
-        <v>0.9999928146506868</v>
+        <v>0.9999661477299779</v>
       </c>
       <c r="E9">
-        <v>-6.5766365344583e-5</v>
+        <v>-0.005770556217377599</v>
       </c>
       <c r="F9">
-        <v>0.0015377745138804785</v>
+        <v>-0.006042716017370026</v>
       </c>
       <c r="G9">
-        <v>-0.0013132782351401545</v>
+        <v>-2.172604251728392e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>14.59481755517812</v>
+        <v>248.71459164956934</v>
       </c>
       <c r="B10">
-        <v>10.010873867196821</v>
+        <v>247.56812137408207</v>
       </c>
       <c r="C10">
-        <v>4.884017073363506</v>
+        <v>28.549492382912447</v>
       </c>
       <c r="D10">
-        <v>0.999996710922039</v>
+        <v>0.999967444210604</v>
       </c>
       <c r="E10">
-        <v>9.13131181239911e-6</v>
+        <v>-0.006417493920578251</v>
       </c>
       <c r="F10">
-        <v>-0.00016705411697394307</v>
+        <v>-0.005333900261126628</v>
       </c>
       <c r="G10">
-        <v>-0.0017529028800748125</v>
+        <v>-2.5057221891615773e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>14.162098011488014</v>
+        <v>248.05824556915059</v>
       </c>
       <c r="B11">
-        <v>10.00773061797236</v>
+        <v>245.17080417049112</v>
       </c>
       <c r="C11">
-        <v>4.887055328306484</v>
+        <v>28.913760593566042</v>
       </c>
       <c r="D11">
-        <v>0.9999987978407711</v>
+        <v>0.9999673170886975</v>
       </c>
       <c r="E11">
-        <v>8.151435759723502e-6</v>
+        <v>-0.008023818898754505</v>
       </c>
       <c r="F11">
-        <v>-9.132503394208486e-5</v>
+        <v>0.002193694064038631</v>
       </c>
       <c r="G11">
-        <v>-0.0018757354884384786</v>
+        <v>-3.8092968200523654e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>247.40153913934083</v>
+      </c>
+      <c r="B12">
+        <v>242.77215254790778</v>
+      </c>
+      <c r="C12">
+        <v>29.235135358347975</v>
+      </c>
+      <c r="D12">
+        <v>0.9999673254524659</v>
+      </c>
+      <c r="E12">
+        <v>-0.008024018208496428</v>
+      </c>
+      <c r="F12">
+        <v>0.002193707985910976</v>
+      </c>
+      <c r="G12">
+        <v>-3.867593685307193e-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>247.89773167796722</v>
+      </c>
+      <c r="B13">
+        <v>240.33312828683964</v>
+      </c>
+      <c r="C13">
+        <v>29.441942351821776</v>
+      </c>
+      <c r="D13">
+        <v>0.9999674142782062</v>
+      </c>
+      <c r="E13">
+        <v>-0.0081716009361752</v>
+      </c>
+      <c r="F13">
+        <v>-0.001666204940151261</v>
+      </c>
+      <c r="G13">
+        <v>-3.755977299651586e-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>248.78724526784765</v>
+      </c>
+      <c r="B14">
+        <v>238.0086233566456</v>
+      </c>
+      <c r="C14">
+        <v>29.585456348723305</v>
+      </c>
+      <c r="D14">
+        <v>0.9999674942076843</v>
+      </c>
+      <c r="E14">
+        <v>-0.007789811175540724</v>
+      </c>
+      <c r="F14">
+        <v>-0.0029850232298415562</v>
+      </c>
+      <c r="G14">
+        <v>-3.560698573436799e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>249.38386407039619</v>
+      </c>
+      <c r="B15">
+        <v>235.59279813298116</v>
+      </c>
+      <c r="C15">
+        <v>29.69731054012415</v>
+      </c>
+      <c r="D15">
+        <v>0.9999675380889276</v>
+      </c>
+      <c r="E15">
+        <v>-0.008087238755970859</v>
+      </c>
+      <c r="F15">
+        <v>-0.0020011755463309375</v>
+      </c>
+      <c r="G15">
+        <v>-3.804505179806968e-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>250.18764749206468</v>
+      </c>
+      <c r="B16">
+        <v>233.2382074328234</v>
+      </c>
+      <c r="C16">
+        <v>29.7850410922657</v>
+      </c>
+      <c r="D16">
+        <v>0.9999675798167796</v>
+      </c>
+      <c r="E16">
+        <v>-0.007884166144623166</v>
+      </c>
+      <c r="F16">
+        <v>-0.002695506112449726</v>
+      </c>
+      <c r="G16">
+        <v>-3.684936447041226e-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>250.99122999310825</v>
+      </c>
+      <c r="B17">
+        <v>230.88422125602253</v>
+      </c>
+      <c r="C17">
+        <v>29.8462493586786</v>
+      </c>
+      <c r="D17">
+        <v>0.9999676272612609</v>
+      </c>
+      <c r="E17">
+        <v>-0.007879832491913711</v>
+      </c>
+      <c r="F17">
+        <v>-0.0026940683219374376</v>
+      </c>
+      <c r="G17">
+        <v>-3.711823220155655e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>250.13518497040334</v>
+      </c>
+      <c r="B18">
+        <v>228.54982915131345</v>
+      </c>
+      <c r="C18">
+        <v>29.888186436226825</v>
+      </c>
+      <c r="D18">
+        <v>0.9999676461581778</v>
+      </c>
+      <c r="E18">
+        <v>-0.0077788880146916015</v>
+      </c>
+      <c r="F18">
+        <v>0.002849426608435092</v>
+      </c>
+      <c r="G18">
+        <v>-4.18765413225253e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>249.2793756368142</v>
+      </c>
+      <c r="B19">
+        <v>226.21606033613074</v>
+      </c>
+      <c r="C19">
+        <v>29.90985729824861</v>
+      </c>
+      <c r="D19">
+        <v>0.999967690036591</v>
+      </c>
+      <c r="E19">
+        <v>-0.007774572780785332</v>
+      </c>
+      <c r="F19">
+        <v>0.0028478133597455804</v>
+      </c>
+      <c r="G19">
+        <v>-4.210411111587128e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>248.56274904469396</v>
+      </c>
+      <c r="B20">
+        <v>223.8355174839571</v>
+      </c>
+      <c r="C20">
+        <v>29.94036614031745</v>
+      </c>
+      <c r="D20">
+        <v>0.999967672165898</v>
+      </c>
+      <c r="E20">
+        <v>-0.007934080831312753</v>
+      </c>
+      <c r="F20">
+        <v>0.0023852035921388265</v>
+      </c>
+      <c r="G20">
+        <v>-4.226533465727935e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>247.89770583178853</v>
+      </c>
+      <c r="B21">
+        <v>221.43965426657107</v>
+      </c>
+      <c r="C21">
+        <v>29.998981658307013</v>
+      </c>
+      <c r="D21">
+        <v>0.9999674815452475</v>
+      </c>
+      <c r="E21">
+        <v>-0.007998398812026686</v>
+      </c>
+      <c r="F21">
+        <v>0.0022166989817912802</v>
+      </c>
+      <c r="G21">
+        <v>-2.4151006608912947e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>248.90923772188873</v>
+      </c>
+      <c r="B22">
+        <v>219.171789015177</v>
+      </c>
+      <c r="C22">
+        <v>29.97064312165939</v>
+      </c>
+      <c r="D22">
+        <v>0.9999651731851176</v>
+      </c>
+      <c r="E22">
+        <v>-0.007712518198598767</v>
+      </c>
+      <c r="F22">
+        <v>-0.0034539864978144087</v>
+      </c>
+      <c r="G22">
+        <v>1.3872843849888381e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>249.80511940564978</v>
+      </c>
+      <c r="B23">
+        <v>216.85373393916763</v>
+      </c>
+      <c r="C23">
+        <v>29.98264427186613</v>
+      </c>
+      <c r="D23">
+        <v>0.9999677267697867</v>
+      </c>
+      <c r="E23">
+        <v>-0.007703281101954765</v>
+      </c>
+      <c r="F23">
+        <v>-0.0029816029351268786</v>
+      </c>
+      <c r="G23">
+        <v>-1.4283907202464745e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>250.70088435527407</v>
+      </c>
+      <c r="B24">
+        <v>214.53599649390807</v>
+      </c>
+      <c r="C24">
+        <v>29.975774956512318</v>
+      </c>
+      <c r="D24">
+        <v>0.999972860733306</v>
+      </c>
+      <c r="E24">
+        <v>-0.007192501224361079</v>
+      </c>
+      <c r="F24">
+        <v>-0.0027880856187993135</v>
+      </c>
+      <c r="G24">
+        <v>5.120082451895003e-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>250.24749534370292</v>
+      </c>
+      <c r="B25">
+        <v>212.09744055241626</v>
+      </c>
+      <c r="C25">
+        <v>29.98385840737752</v>
+      </c>
+      <c r="D25">
+        <v>0.9999982001301992</v>
+      </c>
+      <c r="E25">
+        <v>-0.004711545198483127</v>
+      </c>
+      <c r="F25">
+        <v>0.0008599005314477793</v>
+      </c>
+      <c r="G25">
+        <v>-0.0007434465458050799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>250.3796471452023</v>
+      </c>
+      <c r="B26">
+        <v>209.62084489033106</v>
+      </c>
+      <c r="C26">
+        <v>29.979807111483815</v>
+      </c>
+      <c r="D26">
+        <v>0.9999701838122194</v>
+      </c>
+      <c r="E26">
+        <v>-0.007753391293561453</v>
+      </c>
+      <c r="F26">
+        <v>-0.000418990546828297</v>
+      </c>
+      <c r="G26">
+        <v>-8.303539132403546e-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>250.65291870390024</v>
+      </c>
+      <c r="B27">
+        <v>207.15471548965863</v>
+      </c>
+      <c r="C27">
+        <v>29.980445126191164</v>
+      </c>
+      <c r="D27">
+        <v>0.9999617220166883</v>
+      </c>
+      <c r="E27">
+        <v>-0.008634990074586086</v>
+      </c>
+      <c r="F27">
+        <v>-0.000966683102343543</v>
+      </c>
+      <c r="G27">
+        <v>-1.907020672917884e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>251.38124154549456</v>
+      </c>
+      <c r="B28">
+        <v>204.78314407586402</v>
+      </c>
+      <c r="C28">
+        <v>29.98036097210557</v>
+      </c>
+      <c r="D28">
+        <v>0.9999616435664349</v>
+      </c>
+      <c r="E28">
+        <v>-0.008282674407742741</v>
+      </c>
+      <c r="F28">
+        <v>-0.0025534255108803183</v>
+      </c>
+      <c r="G28">
+        <v>-2.2877599186507e-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>251.65128225417254</v>
+      </c>
+      <c r="B29">
+        <v>202.31668748755123</v>
+      </c>
+      <c r="C29">
+        <v>29.980501020946928</v>
+      </c>
+      <c r="D29">
+        <v>0.9999617262341861</v>
+      </c>
+      <c r="E29">
+        <v>-0.008636011246267103</v>
+      </c>
+      <c r="F29">
+        <v>-0.0009553534817262585</v>
+      </c>
+      <c r="G29">
+        <v>-1.9043203526542906e-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>252.05291800653418</v>
+      </c>
+      <c r="B30">
+        <v>199.86831700553617</v>
+      </c>
+      <c r="C30">
+        <v>29.979910179065673</v>
+      </c>
+      <c r="D30">
+        <v>0.9999616528166817</v>
+      </c>
+      <c r="E30">
+        <v>-0.008572230815994463</v>
+      </c>
+      <c r="F30">
+        <v>-0.001416020231086316</v>
+      </c>
+      <c r="G30">
+        <v>-1.9404651594972178e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>252.2106099383388</v>
+      </c>
+      <c r="B31">
+        <v>197.3920388384503</v>
+      </c>
+      <c r="C31">
+        <v>29.980684711457823</v>
+      </c>
+      <c r="D31">
+        <v>0.9999617255321054</v>
+      </c>
+      <c r="E31">
+        <v>-0.008677392014353164</v>
+      </c>
+      <c r="F31">
+        <v>-0.0005624292074312121</v>
+      </c>
+      <c r="G31">
+        <v>-1.8120054810020122e-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>252.68266029789368</v>
+      </c>
+      <c r="B32">
+        <v>194.95632127853642</v>
+      </c>
+      <c r="C32">
+        <v>29.980087771923202</v>
+      </c>
+      <c r="D32">
+        <v>0.9999617235161401</v>
+      </c>
+      <c r="E32">
+        <v>-0.008515786690753362</v>
+      </c>
+      <c r="F32">
+        <v>-0.0016602157957753135</v>
+      </c>
+      <c r="G32">
+        <v>-2.0837360080986787e-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>253.56590194225242</v>
+      </c>
+      <c r="B33">
+        <v>192.63807557152995</v>
+      </c>
+      <c r="C33">
+        <v>29.98065383273312</v>
+      </c>
+      <c r="D33">
+        <v>0.9999616362934114</v>
+      </c>
+      <c r="E33">
+        <v>-0.008086287578472618</v>
+      </c>
+      <c r="F33">
+        <v>-0.00309056653870928</v>
+      </c>
+      <c r="G33">
+        <v>-2.474342827773203e-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>254.48414050544582</v>
+      </c>
+      <c r="B34">
+        <v>190.33354067762235</v>
+      </c>
+      <c r="C34">
+        <v>29.980095922307587</v>
+      </c>
+      <c r="D34">
+        <v>0.9999615680843399</v>
+      </c>
+      <c r="E34">
+        <v>-0.008043051020368525</v>
+      </c>
+      <c r="F34">
+        <v>-0.0032144295413546707</v>
+      </c>
+      <c r="G34">
+        <v>-2.4840574062972383e-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>255.4324373699592</v>
+      </c>
+      <c r="B35">
+        <v>188.04120653656605</v>
+      </c>
+      <c r="C35">
+        <v>29.979899798452283</v>
+      </c>
+      <c r="D35">
+        <v>0.999961562917359</v>
+      </c>
+      <c r="E35">
+        <v>-0.007998679454998207</v>
+      </c>
+      <c r="F35">
+        <v>-0.0033185881264464873</v>
+      </c>
+      <c r="G35">
+        <v>-2.5257254348713643e-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>256.1998691510566</v>
+      </c>
+      <c r="B36">
+        <v>185.68199427830876</v>
+      </c>
+      <c r="C36">
+        <v>29.9804734507009</v>
+      </c>
+      <c r="D36">
+        <v>0.9999616383564646</v>
+      </c>
+      <c r="E36">
+        <v>-0.008237189060300978</v>
+      </c>
+      <c r="F36">
+        <v>-0.002689251428185719</v>
+      </c>
+      <c r="G36">
+        <v>-2.333252132568994e-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>257.16809051571227</v>
+      </c>
+      <c r="B37">
+        <v>183.39803973344246</v>
+      </c>
+      <c r="C37">
+        <v>29.98043748489665</v>
+      </c>
+      <c r="D37">
+        <v>0.9999617076086488</v>
+      </c>
+      <c r="E37">
+        <v>-0.007953498256735771</v>
+      </c>
+      <c r="F37">
+        <v>-0.0033813887972847837</v>
+      </c>
+      <c r="G37">
+        <v>-2.6146402242182494e-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>256.7985144285911</v>
+      </c>
+      <c r="B38">
+        <v>180.9441639044835</v>
+      </c>
+      <c r="C38">
+        <v>29.980040486777312</v>
+      </c>
+      <c r="D38">
+        <v>0.9999617400234228</v>
+      </c>
+      <c r="E38">
+        <v>-0.008627801532933292</v>
+      </c>
+      <c r="F38">
+        <v>0.0012895011644557303</v>
+      </c>
+      <c r="G38">
+        <v>-1.4378971258312933e-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>255.44145121312707</v>
+      </c>
+      <c r="B39">
+        <v>178.86587767357682</v>
+      </c>
+      <c r="C39">
+        <v>29.979728658231263</v>
+      </c>
+      <c r="D39">
+        <v>0.9999616077401532</v>
+      </c>
+      <c r="E39">
+        <v>-0.00736245101556416</v>
+      </c>
+      <c r="F39">
+        <v>0.004796444444965856</v>
+      </c>
+      <c r="G39">
+        <v>-5.7408508063909345e-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>254.84356655181753</v>
+      </c>
+      <c r="B40">
+        <v>176.4572602156855</v>
+      </c>
+      <c r="C40">
+        <v>29.979848064984015</v>
+      </c>
+      <c r="D40">
+        <v>0.9999616673737809</v>
+      </c>
+      <c r="E40">
+        <v>-0.00848810413392874</v>
+      </c>
+      <c r="F40">
+        <v>0.00209696691136765</v>
+      </c>
+      <c r="G40">
+        <v>-1.1528590388902787e-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>253.44132203659277</v>
+      </c>
+      <c r="B41">
+        <v>174.40915455214477</v>
+      </c>
+      <c r="C41">
+        <v>29.979202898035428</v>
+      </c>
+      <c r="D41">
+        <v>0.99996167803231</v>
+      </c>
+      <c r="E41">
+        <v>-0.00725158936120402</v>
+      </c>
+      <c r="F41">
+        <v>0.0049536710424397</v>
+      </c>
+      <c r="G41">
+        <v>-7.479689395123362e-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States2.xlsx
+++ b/src/Quadrotor_States2.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,922 +428,1842 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>241.3294416283204</v>
+        <v>229.78245191559003</v>
       </c>
       <c r="B2">
-        <v>249.83381950773693</v>
+        <v>284.56478226251687</v>
       </c>
       <c r="C2">
-        <v>12.521498795171782</v>
+        <v>12.936229203373731</v>
       </c>
       <c r="D2">
-        <v>0.9999905893999985</v>
+        <v>1.000001188878262</v>
       </c>
       <c r="E2">
-        <v>-0.0005814651672554243</v>
+        <v>0.0007930386645886761</v>
       </c>
       <c r="F2">
-        <v>-0.004653423551555466</v>
+        <v>-0.00040082762769435925</v>
       </c>
       <c r="G2">
-        <v>-1.7560234969095898e-6</v>
+        <v>-0.001574368443695229</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>240.68531543302356</v>
+        <v>229.96923818551014</v>
       </c>
       <c r="B3">
-        <v>249.52784862700418</v>
+        <v>284.71847403628095</v>
       </c>
       <c r="C3">
-        <v>16.480334140571145</v>
+        <v>17.070740694283863</v>
       </c>
       <c r="D3">
-        <v>1.000001453931091</v>
+        <v>1.0000006305482516</v>
       </c>
       <c r="E3">
-        <v>0.0004311269216880986</v>
+        <v>0.0008066114009431799</v>
       </c>
       <c r="F3">
-        <v>-0.0002902982441685387</v>
+        <v>0.0001828213224548326</v>
       </c>
       <c r="G3">
-        <v>-0.0017426076241131199</v>
+        <v>-7.929386563041195e-6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>240.28226458743686</v>
+        <v>229.53590331775064</v>
       </c>
       <c r="B4">
-        <v>249.29872689348366</v>
+        <v>284.2818561419328</v>
       </c>
       <c r="C4">
-        <v>19.88456890902656</v>
+        <v>20.938841270633798</v>
       </c>
       <c r="D4">
-        <v>1.0000034166305543</v>
+        <v>1.0000040776990191</v>
       </c>
       <c r="E4">
-        <v>0.001088708298067168</v>
+        <v>0.0014431316129272518</v>
       </c>
       <c r="F4">
-        <v>-0.0018872572130950252</v>
+        <v>-0.0019717282323636347</v>
       </c>
       <c r="G4">
-        <v>-0.000124988743876904</v>
+        <v>-0.00017852572470537748</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>239.82551737395363</v>
+        <v>228.6705741797869</v>
       </c>
       <c r="B5">
-        <v>250.83995532593937</v>
+        <v>284.1142797948906</v>
       </c>
       <c r="C5">
-        <v>22.61707430298972</v>
+        <v>24.67633162798734</v>
       </c>
       <c r="D5">
-        <v>0.9999856214969297</v>
+        <v>0.9999997029633937</v>
       </c>
       <c r="E5">
-        <v>0.005408975658812984</v>
+        <v>3.9540501732166404e-5</v>
       </c>
       <c r="F5">
-        <v>0.0016022596232845726</v>
+        <v>0.0005237770320256687</v>
       </c>
       <c r="G5">
-        <v>-1.9195027410283588e-6</v>
+        <v>2.6024622235507745e-5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>241.42728598362734</v>
+        <v>226.62664307060413</v>
       </c>
       <c r="B6">
-        <v>251.9919926003341</v>
+        <v>283.2500858319309</v>
       </c>
       <c r="C6">
-        <v>24.850003865221836</v>
+        <v>27.01667603941943</v>
       </c>
       <c r="D6">
-        <v>0.9999785608495022</v>
+        <v>0.9999833098701132</v>
       </c>
       <c r="E6">
-        <v>0.003977855627525603</v>
+        <v>-0.002161681023341615</v>
       </c>
       <c r="F6">
-        <v>-0.00553207978690501</v>
+        <v>0.005761867404210609</v>
       </c>
       <c r="G6">
-        <v>-3.076120180341011e-6</v>
+        <v>-1.718672328275655e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>243.58901740551389</v>
+        <v>224.17212961723632</v>
       </c>
       <c r="B7">
-        <v>252.81149467287202</v>
+        <v>282.28811604643977</v>
       </c>
       <c r="C7">
-        <v>26.29482261658934</v>
+        <v>28.334425238667478</v>
       </c>
       <c r="D7">
-        <v>0.9999709666560443</v>
+        <v>0.9999820355743737</v>
       </c>
       <c r="E7">
-        <v>0.0027908595663249233</v>
+        <v>-0.0020639796619650224</v>
       </c>
       <c r="F7">
-        <v>-0.007363712377355721</v>
+        <v>0.006001275066684744</v>
       </c>
       <c r="G7">
-        <v>-4.17358312815671e-6</v>
+        <v>-1.5778832566614392e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>245.3498138569839</v>
+        <v>222.48216950755284</v>
       </c>
       <c r="B8">
-        <v>251.176181408878</v>
+        <v>280.03605739446687</v>
       </c>
       <c r="C8">
-        <v>27.363757516494736</v>
+        <v>29.03894257338707</v>
       </c>
       <c r="D8">
-        <v>0.9999675262667628</v>
+        <v>0.9999819857794177</v>
       </c>
       <c r="E8">
-        <v>-0.00557588295655755</v>
+        <v>-0.005950922520720402</v>
       </c>
       <c r="F8">
-        <v>-0.006006611440629892</v>
+        <v>0.0021780978023410286</v>
       </c>
       <c r="G8">
-        <v>-1.8184348712331313e-5</v>
+        <v>-2.0723855087304018e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>247.1336491150531</v>
+        <v>219.9110644575694</v>
       </c>
       <c r="B9">
-        <v>249.47171905062305</v>
+        <v>278.4458950389561</v>
       </c>
       <c r="C9">
-        <v>27.987095847749455</v>
+        <v>29.41085974067507</v>
       </c>
       <c r="D9">
-        <v>0.9999661477299779</v>
+        <v>0.9999876065358347</v>
       </c>
       <c r="E9">
-        <v>-0.005770556217377599</v>
+        <v>-0.0024509874913542892</v>
       </c>
       <c r="F9">
-        <v>-0.006042716017370026</v>
+        <v>0.004716127737293664</v>
       </c>
       <c r="G9">
-        <v>-2.172604251728392e-5</v>
+        <v>-8.99440185512289e-6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>248.71459164956934</v>
+        <v>217.12702946751432</v>
       </c>
       <c r="B10">
-        <v>247.56812137408207</v>
+        <v>276.948055967951</v>
       </c>
       <c r="C10">
-        <v>28.549492382912447</v>
+        <v>29.60632283402048</v>
       </c>
       <c r="D10">
-        <v>0.999967444210604</v>
+        <v>0.9999904709175256</v>
       </c>
       <c r="E10">
-        <v>-0.006417493920578251</v>
+        <v>-0.0015980552117845954</v>
       </c>
       <c r="F10">
-        <v>-0.005333900261126628</v>
+        <v>0.00441843947533728</v>
       </c>
       <c r="G10">
-        <v>-2.5057221891615773e-5</v>
+        <v>-5.825282265050552e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>248.05824556915059</v>
+        <v>214.7460932859136</v>
       </c>
       <c r="B11">
-        <v>245.17080417049112</v>
+        <v>274.90339334185296</v>
       </c>
       <c r="C11">
-        <v>28.913760593566042</v>
+        <v>29.715960362214414</v>
       </c>
       <c r="D11">
-        <v>0.9999673170886975</v>
+        <v>0.9999922084755447</v>
       </c>
       <c r="E11">
-        <v>-0.008023818898754505</v>
+        <v>-0.003243440407422715</v>
       </c>
       <c r="F11">
-        <v>0.002193694064038631</v>
+        <v>0.0021787581832675837</v>
       </c>
       <c r="G11">
-        <v>-3.8092968200523654e-5</v>
+        <v>0.0002831110341641459</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>247.40153913934083</v>
+        <v>211.87768424186487</v>
       </c>
       <c r="B12">
-        <v>242.77215254790778</v>
+        <v>273.4071866991345</v>
       </c>
       <c r="C12">
-        <v>29.235135358347975</v>
+        <v>29.763381163042016</v>
       </c>
       <c r="D12">
-        <v>0.9999673254524659</v>
+        <v>0.9999934274505445</v>
       </c>
       <c r="E12">
-        <v>-0.008024018208496428</v>
+        <v>-0.0005491716411223284</v>
       </c>
       <c r="F12">
-        <v>0.002193707985910976</v>
+        <v>0.0028948659738636984</v>
       </c>
       <c r="G12">
-        <v>-3.867593685307193e-5</v>
+        <v>0.0013541020000310423</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>247.89773167796722</v>
+        <v>209.31628161372967</v>
       </c>
       <c r="B13">
-        <v>240.33312828683964</v>
+        <v>271.30121365036916</v>
       </c>
       <c r="C13">
-        <v>29.441942351821776</v>
+        <v>29.78704644797142</v>
       </c>
       <c r="D13">
-        <v>0.9999674142782062</v>
+        <v>0.9999982948621439</v>
       </c>
       <c r="E13">
-        <v>-0.0081716009361752</v>
+        <v>-0.001036026960572389</v>
       </c>
       <c r="F13">
-        <v>-0.001666204940151261</v>
+        <v>0.0006242644783043202</v>
       </c>
       <c r="G13">
-        <v>-3.755977299651586e-5</v>
+        <v>-0.0005259473163722215</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>248.78724526784765</v>
+        <v>206.08667989114335</v>
       </c>
       <c r="B14">
-        <v>238.0086233566456</v>
+        <v>271.4095391110841</v>
       </c>
       <c r="C14">
-        <v>29.585456348723305</v>
+        <v>29.821672849993536</v>
       </c>
       <c r="D14">
-        <v>0.9999674942076843</v>
+        <v>0.9999809067484998</v>
       </c>
       <c r="E14">
-        <v>-0.007789811175540724</v>
+        <v>0.005574886357001383</v>
       </c>
       <c r="F14">
-        <v>-0.0029850232298415562</v>
+        <v>0.0033978424151226896</v>
       </c>
       <c r="G14">
-        <v>-3.560698573436799e-5</v>
+        <v>2.098382072037352e-6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>249.38386407039619</v>
+        <v>203.57923198460168</v>
       </c>
       <c r="B15">
-        <v>235.59279813298116</v>
+        <v>269.16756951902767</v>
       </c>
       <c r="C15">
-        <v>29.69731054012415</v>
+        <v>29.83710073459912</v>
       </c>
       <c r="D15">
-        <v>0.9999675380889276</v>
+        <v>0.9999916974401727</v>
       </c>
       <c r="E15">
-        <v>-0.008087238755970859</v>
+        <v>-0.00410619014579606</v>
       </c>
       <c r="F15">
-        <v>-0.0020011755463309375</v>
+        <v>0.00031300376176432085</v>
       </c>
       <c r="G15">
-        <v>-3.804505179806968e-5</v>
+        <v>-0.0005788590722132655</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>250.18764749206468</v>
+        <v>201.39497377214053</v>
       </c>
       <c r="B16">
-        <v>233.2382074328234</v>
+        <v>266.4966344722158</v>
       </c>
       <c r="C16">
-        <v>29.7850410922657</v>
+        <v>29.826432477105303</v>
       </c>
       <c r="D16">
-        <v>0.9999675798167796</v>
+        <v>0.9999910764656497</v>
       </c>
       <c r="E16">
-        <v>-0.007884166144623166</v>
+        <v>-0.004438968784494277</v>
       </c>
       <c r="F16">
-        <v>-0.002695506112449726</v>
+        <v>-0.000994706489451697</v>
       </c>
       <c r="G16">
-        <v>-3.684936447041226e-5</v>
+        <v>-5.8444201114486235e-6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>250.99122999310825</v>
+        <v>200.07999950599955</v>
       </c>
       <c r="B17">
-        <v>230.88422125602253</v>
+        <v>263.4073413827758</v>
       </c>
       <c r="C17">
-        <v>29.8462493586786</v>
+        <v>29.84287704287198</v>
       </c>
       <c r="D17">
-        <v>0.9999676272612609</v>
+        <v>0.9999838567924315</v>
       </c>
       <c r="E17">
-        <v>-0.007879832491913711</v>
+        <v>-0.004749364690841267</v>
       </c>
       <c r="F17">
-        <v>-0.0026940683219374376</v>
+        <v>-0.0036946004806567363</v>
       </c>
       <c r="G17">
-        <v>-3.711823220155655e-5</v>
+        <v>-1.1843841147327406e-5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>250.13518497040334</v>
+        <v>197.34225498269805</v>
       </c>
       <c r="B18">
-        <v>228.54982915131345</v>
+        <v>261.28682431571156</v>
       </c>
       <c r="C18">
-        <v>29.888186436226825</v>
+        <v>29.837275106687418</v>
       </c>
       <c r="D18">
-        <v>0.9999676461581778</v>
+        <v>0.9999989968762963</v>
       </c>
       <c r="E18">
-        <v>-0.0077788880146916015</v>
+        <v>0.00029963622093583987</v>
       </c>
       <c r="F18">
-        <v>0.002849426608435092</v>
+        <v>-0.0016627732874730484</v>
       </c>
       <c r="G18">
-        <v>-4.18765413225253e-5</v>
+        <v>0.0010007742402150124</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>249.2793756368142</v>
+        <v>194.50591946568903</v>
       </c>
       <c r="B19">
-        <v>226.21606033613074</v>
+        <v>259.19555212756376</v>
       </c>
       <c r="C19">
-        <v>29.90985729824861</v>
+        <v>29.82256890333562</v>
       </c>
       <c r="D19">
-        <v>0.999967690036591</v>
+        <v>0.9999993331278358</v>
       </c>
       <c r="E19">
-        <v>-0.007774572780785332</v>
+        <v>0.0001405328539728661</v>
       </c>
       <c r="F19">
-        <v>0.0028478133597455804</v>
+        <v>-0.0016274545297961642</v>
       </c>
       <c r="G19">
-        <v>-4.210411111587128e-5</v>
+        <v>0.00021974882261810837</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>248.56274904469396</v>
+        <v>191.25199771298264</v>
       </c>
       <c r="B20">
-        <v>223.8355174839571</v>
+        <v>257.7954475147859</v>
       </c>
       <c r="C20">
-        <v>29.94036614031745</v>
+        <v>29.82437903830299</v>
       </c>
       <c r="D20">
-        <v>0.999967672165898</v>
+        <v>0.9999925508131463</v>
       </c>
       <c r="E20">
-        <v>-0.007934080831312753</v>
+        <v>0.002487943287180906</v>
       </c>
       <c r="F20">
-        <v>0.0023852035921388265</v>
+        <v>0.0032980128389555607</v>
       </c>
       <c r="G20">
-        <v>-4.226533465727935e-5</v>
+        <v>0.00023832231583108005</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>247.89770583178853</v>
+        <v>187.79410266952823</v>
       </c>
       <c r="B21">
-        <v>221.43965426657107</v>
+        <v>256.8570114589185</v>
       </c>
       <c r="C21">
-        <v>29.998981658307013</v>
+        <v>29.82333208347233</v>
       </c>
       <c r="D21">
-        <v>0.9999674815452475</v>
+        <v>0.9999913399500233</v>
       </c>
       <c r="E21">
-        <v>-0.007998398812026686</v>
+        <v>0.003368183210397446</v>
       </c>
       <c r="F21">
-        <v>0.0022166989817912802</v>
+        <v>0.0029811872658901326</v>
       </c>
       <c r="G21">
-        <v>-2.4151006608912947e-5</v>
+        <v>-2.73487739716249e-6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>248.90923772188873</v>
+        <v>184.69901546147105</v>
       </c>
       <c r="B22">
-        <v>219.171789015177</v>
+        <v>254.96074943095732</v>
       </c>
       <c r="C22">
-        <v>29.97064312165939</v>
+        <v>29.816440607157304</v>
       </c>
       <c r="D22">
-        <v>0.9999651731851176</v>
+        <v>1.0000022166831313</v>
       </c>
       <c r="E22">
-        <v>-0.007712518198598767</v>
+        <v>0.0012260564481145144</v>
       </c>
       <c r="F22">
-        <v>-0.0034539864978144087</v>
+        <v>-0.0016726902932913692</v>
       </c>
       <c r="G22">
-        <v>1.3872843849888381e-5</v>
+        <v>-7.929166305949523e-5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>249.80511940564978</v>
+        <v>181.44973859405368</v>
       </c>
       <c r="B23">
-        <v>216.85373393916763</v>
+        <v>253.2667316719476</v>
       </c>
       <c r="C23">
-        <v>29.98264427186613</v>
+        <v>29.80880540732819</v>
       </c>
       <c r="D23">
-        <v>0.9999677267697867</v>
+        <v>1.000001356727171</v>
       </c>
       <c r="E23">
-        <v>-0.007703281101954765</v>
+        <v>-0.00022807235872674396</v>
       </c>
       <c r="F23">
-        <v>-0.0029816029351268786</v>
+        <v>-0.002392507006423511</v>
       </c>
       <c r="G23">
-        <v>-1.4283907202464745e-5</v>
+        <v>-2.291249990872784e-5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>250.70088435527407</v>
+        <v>178.65748696641145</v>
       </c>
       <c r="B24">
-        <v>214.53599649390807</v>
+        <v>250.85430000898995</v>
       </c>
       <c r="C24">
-        <v>29.975774956512318</v>
+        <v>29.80970300173588</v>
       </c>
       <c r="D24">
-        <v>0.999972860733306</v>
+        <v>0.9999997282674675</v>
       </c>
       <c r="E24">
-        <v>-0.007192501224361079</v>
+        <v>-0.00078591510349153</v>
       </c>
       <c r="F24">
-        <v>-0.0027880856187993135</v>
+        <v>-0.00019422799623664707</v>
       </c>
       <c r="G24">
-        <v>5.120082451895003e-5</v>
+        <v>-0.00027451815395071217</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>250.24749534370292</v>
+        <v>175.45190031474627</v>
       </c>
       <c r="B25">
-        <v>212.09744055241626</v>
+        <v>248.93638489680134</v>
       </c>
       <c r="C25">
-        <v>29.98385840737752</v>
+        <v>29.80236701996791</v>
       </c>
       <c r="D25">
-        <v>0.9999982001301992</v>
+        <v>1.0000012484140035</v>
       </c>
       <c r="E25">
-        <v>-0.004711545198483127</v>
+        <v>0.000240323840251407</v>
       </c>
       <c r="F25">
-        <v>0.0008599005314477793</v>
+        <v>-0.0017822907649517666</v>
       </c>
       <c r="G25">
-        <v>-0.0007434465458050799</v>
+        <v>-1.8779258488393902e-5</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>250.3796471452023</v>
+        <v>172.0370484409705</v>
       </c>
       <c r="B26">
-        <v>209.62084489033106</v>
+        <v>247.4084270640529</v>
       </c>
       <c r="C26">
-        <v>29.979807111483815</v>
+        <v>29.804581690614388</v>
       </c>
       <c r="D26">
-        <v>0.9999701838122194</v>
+        <v>0.9999990861500444</v>
       </c>
       <c r="E26">
-        <v>-0.007753391293561453</v>
+        <v>-0.0009229119063519572</v>
       </c>
       <c r="F26">
-        <v>-0.000418990546828297</v>
+        <v>-0.0009294154800401637</v>
       </c>
       <c r="G26">
-        <v>-8.303539132403546e-6</v>
+        <v>0.0010864729804870303</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>250.65291870390024</v>
+        <v>168.54822693795987</v>
       </c>
       <c r="B27">
-        <v>207.15471548965863</v>
+        <v>246.00319092712084</v>
       </c>
       <c r="C27">
-        <v>29.980445126191164</v>
+        <v>29.804321103337735</v>
       </c>
       <c r="D27">
-        <v>0.9999617220166883</v>
+        <v>1.0000000349410703</v>
       </c>
       <c r="E27">
-        <v>-0.008634990074586086</v>
+        <v>-0.0009476940325632475</v>
       </c>
       <c r="F27">
-        <v>-0.000966683102343543</v>
+        <v>-0.0006980201047612007</v>
       </c>
       <c r="G27">
-        <v>-1.907020672917884e-5</v>
+        <v>0.004372238629335721</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>251.38124154549456</v>
+        <v>164.9429153140295</v>
       </c>
       <c r="B28">
-        <v>204.78314407586402</v>
+        <v>244.98232576144113</v>
       </c>
       <c r="C28">
-        <v>29.98036097210557</v>
+        <v>29.809873623170652</v>
       </c>
       <c r="D28">
-        <v>0.9999616435664349</v>
+        <v>0.9999988995607909</v>
       </c>
       <c r="E28">
-        <v>-0.008282674407742741</v>
+        <v>0.0004753616234369192</v>
       </c>
       <c r="F28">
-        <v>-0.0025534255108803183</v>
+        <v>0.0003799026915357653</v>
       </c>
       <c r="G28">
-        <v>-2.2877599186507e-5</v>
+        <v>0.0001933167997893831</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>251.65128225417254</v>
+        <v>161.70940527932004</v>
       </c>
       <c r="B29">
-        <v>202.31668748755123</v>
+        <v>242.98873307291507</v>
       </c>
       <c r="C29">
-        <v>29.980501020946928</v>
+        <v>29.80307347879508</v>
       </c>
       <c r="D29">
-        <v>0.9999617262341861</v>
+        <v>1.0000018162732824</v>
       </c>
       <c r="E29">
-        <v>-0.008636011246267103</v>
+        <v>0.0009233523443983784</v>
       </c>
       <c r="F29">
-        <v>-0.0009553534817262585</v>
+        <v>9.02390051092292e-5</v>
       </c>
       <c r="G29">
-        <v>-1.9043203526542906e-5</v>
+        <v>-0.0017764246489055543</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>252.05291800653418</v>
+        <v>158.12233837471928</v>
       </c>
       <c r="B30">
-        <v>199.86831700553617</v>
+        <v>241.7488477532972</v>
       </c>
       <c r="C30">
-        <v>29.979910179065673</v>
+        <v>29.804571871080018</v>
       </c>
       <c r="D30">
-        <v>0.9999616528166817</v>
+        <v>0.9999982049150211</v>
       </c>
       <c r="E30">
-        <v>-0.008572230815994463</v>
+        <v>-0.002758136073966552</v>
       </c>
       <c r="F30">
-        <v>-0.001416020231086316</v>
+        <v>-0.0017835955377847805</v>
       </c>
       <c r="G30">
-        <v>-1.9404651594972178e-5</v>
+        <v>-0.0002752114120681511</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>252.2106099383388</v>
+        <v>154.90112972367024</v>
       </c>
       <c r="B31">
-        <v>197.3920388384503</v>
+        <v>239.69049158309187</v>
       </c>
       <c r="C31">
-        <v>29.980684711457823</v>
+        <v>29.801824961298152</v>
       </c>
       <c r="D31">
-        <v>0.9999617255321054</v>
+        <v>1.000001484089416</v>
       </c>
       <c r="E31">
-        <v>-0.008677392014353164</v>
+        <v>0.00031217006707625277</v>
       </c>
       <c r="F31">
-        <v>-0.0005624292074312121</v>
+        <v>7.772729455264165e-5</v>
       </c>
       <c r="G31">
-        <v>-1.8120054810020122e-5</v>
+        <v>-0.00035642619357869297</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>252.68266029789368</v>
+        <v>151.80216005061288</v>
       </c>
       <c r="B32">
-        <v>194.95632127853642</v>
+        <v>237.45219197979546</v>
       </c>
       <c r="C32">
-        <v>29.980087771923202</v>
+        <v>29.801489089239247</v>
       </c>
       <c r="D32">
-        <v>0.9999617235161401</v>
+        <v>1.0000010331136608</v>
       </c>
       <c r="E32">
-        <v>-0.008515786690753362</v>
+        <v>0.00022492460917168563</v>
       </c>
       <c r="F32">
-        <v>-0.0016602157957753135</v>
+        <v>7.93519464654776e-5</v>
       </c>
       <c r="G32">
-        <v>-2.0837360080986787e-5</v>
+        <v>-0.0008723102244307077</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>253.56590194225242</v>
+        <v>148.97657682912285</v>
       </c>
       <c r="B33">
-        <v>192.63807557152995</v>
+        <v>234.91463500585002</v>
       </c>
       <c r="C33">
-        <v>29.98065383273312</v>
+        <v>29.8086023335983</v>
       </c>
       <c r="D33">
-        <v>0.9999616362934114</v>
+        <v>0.9999982905552872</v>
       </c>
       <c r="E33">
-        <v>-0.008086287578472618</v>
+        <v>-0.001159923174063366</v>
       </c>
       <c r="F33">
-        <v>-0.00309056653870928</v>
+        <v>-0.0007151877526073134</v>
       </c>
       <c r="G33">
-        <v>-2.474342827773203e-5</v>
+        <v>-0.0003919641197097879</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>254.48414050544582</v>
+        <v>145.56452388511022</v>
       </c>
       <c r="B34">
-        <v>190.33354067762235</v>
+        <v>233.12899510609543</v>
       </c>
       <c r="C34">
-        <v>29.980095922307587</v>
+        <v>29.80077401909378</v>
       </c>
       <c r="D34">
-        <v>0.9999615680843399</v>
+        <v>1.0000008209817832</v>
       </c>
       <c r="E34">
-        <v>-0.008043051020368525</v>
+        <v>-0.0013299963988225392</v>
       </c>
       <c r="F34">
-        <v>-0.0032144295413546707</v>
+        <v>-0.0018050225469070406</v>
       </c>
       <c r="G34">
-        <v>-2.4840574062972383e-5</v>
+        <v>-0.00010388376796434002</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>255.4324373699592</v>
+        <v>142.61435135544139</v>
       </c>
       <c r="B35">
-        <v>188.04120653656605</v>
+        <v>230.66406835556967</v>
       </c>
       <c r="C35">
-        <v>29.979899798452283</v>
+        <v>29.803605667576882</v>
       </c>
       <c r="D35">
-        <v>0.999961562917359</v>
+        <v>1.0000009830811873</v>
       </c>
       <c r="E35">
-        <v>-0.007998679454998207</v>
+        <v>0.00010132540643221946</v>
       </c>
       <c r="F35">
-        <v>-0.0033185881264464873</v>
+        <v>4.544158031882334e-5</v>
       </c>
       <c r="G35">
-        <v>-2.5257254348713643e-5</v>
+        <v>-0.0005178338218055434</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>256.1998691510566</v>
+        <v>139.26973015698707</v>
       </c>
       <c r="B36">
-        <v>185.68199427830876</v>
+        <v>228.6902215728036</v>
       </c>
       <c r="C36">
-        <v>29.9804734507009</v>
+        <v>29.798081371748605</v>
       </c>
       <c r="D36">
-        <v>0.9999616383564646</v>
+        <v>1.0000007439845855</v>
       </c>
       <c r="E36">
-        <v>-0.008237189060300978</v>
+        <v>-0.00045960694718754567</v>
       </c>
       <c r="F36">
-        <v>-0.002689251428185719</v>
+        <v>-0.0011439277658839356</v>
       </c>
       <c r="G36">
-        <v>-2.333252132568994e-5</v>
+        <v>-3.412499863096136e-6</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>257.16809051571227</v>
+        <v>135.96574911197968</v>
       </c>
       <c r="B37">
-        <v>183.39803973344246</v>
+        <v>229.2674482847914</v>
       </c>
       <c r="C37">
-        <v>29.98043748489665</v>
+        <v>29.859155732328997</v>
       </c>
       <c r="D37">
-        <v>0.9999617076086488</v>
+        <v>0.9999641597124146</v>
       </c>
       <c r="E37">
-        <v>-0.007953498256735771</v>
+        <v>0.008737417818095157</v>
       </c>
       <c r="F37">
-        <v>-0.0033813887972847837</v>
+        <v>0.00033986499135194704</v>
       </c>
       <c r="G37">
-        <v>-2.6146402242182494e-5</v>
+        <v>2.7728545534328292e-5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>256.7985144285911</v>
+        <v>132.7270059647846</v>
       </c>
       <c r="B38">
-        <v>180.9441639044835</v>
+        <v>230.1794253373932</v>
       </c>
       <c r="C38">
-        <v>29.980040486777312</v>
+        <v>29.899131190091715</v>
       </c>
       <c r="D38">
-        <v>0.9999617400234228</v>
+        <v>0.9999718273539638</v>
       </c>
       <c r="E38">
-        <v>-0.008627801532933292</v>
+        <v>0.00783266420301734</v>
       </c>
       <c r="F38">
-        <v>0.0012895011644557303</v>
+        <v>4.1748832198110154e-5</v>
       </c>
       <c r="G38">
-        <v>-1.4378971258312933e-5</v>
+        <v>1.560112036677725e-5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>255.44145121312707</v>
+        <v>129.80394063344767</v>
       </c>
       <c r="B39">
-        <v>178.86587767357682</v>
+        <v>228.0377636766852</v>
       </c>
       <c r="C39">
-        <v>29.979728658231263</v>
+        <v>29.884271978007956</v>
       </c>
       <c r="D39">
-        <v>0.9999616077401532</v>
+        <v>0.99999135134909</v>
       </c>
       <c r="E39">
-        <v>-0.00736245101556416</v>
+        <v>-0.0043587519769108934</v>
       </c>
       <c r="F39">
-        <v>0.004796444444965856</v>
+        <v>-0.0010568473900302217</v>
       </c>
       <c r="G39">
-        <v>-5.7408508063909345e-6</v>
+        <v>-5.758001228534641e-6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>254.84356655181753</v>
+        <v>127.64260116983553</v>
       </c>
       <c r="B40">
-        <v>176.4572602156855</v>
+        <v>225.3052505676319</v>
       </c>
       <c r="C40">
-        <v>29.979848064984015</v>
+        <v>29.88197674904901</v>
       </c>
       <c r="D40">
-        <v>0.9999616673737809</v>
+        <v>0.9999824378629629</v>
       </c>
       <c r="E40">
-        <v>-0.00848810413392874</v>
+        <v>-0.005274650829233637</v>
       </c>
       <c r="F40">
-        <v>0.00209696691136765</v>
+        <v>-0.003372854109501023</v>
       </c>
       <c r="G40">
-        <v>-1.1528590388902787e-5</v>
+        <v>-1.3850619490899472e-5</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>253.44132203659277</v>
+        <v>124.63381480676843</v>
       </c>
       <c r="B41">
-        <v>174.40915455214477</v>
+        <v>223.23812007102174</v>
       </c>
       <c r="C41">
-        <v>29.979202898035428</v>
+        <v>29.857902013074973</v>
       </c>
       <c r="D41">
-        <v>0.99996167803231</v>
+        <v>1.0000012578391368</v>
       </c>
       <c r="E41">
-        <v>-0.00725158936120402</v>
+        <v>0.00033641532763068453</v>
       </c>
       <c r="F41">
-        <v>0.0049536710424397</v>
+        <v>-6.54668662076387e-5</v>
       </c>
       <c r="G41">
-        <v>-7.479689395123362e-6</v>
+        <v>-0.00041923955201421826</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>122.07834021902428</v>
+      </c>
+      <c r="B42">
+        <v>220.64960932145604</v>
+      </c>
+      <c r="C42">
+        <v>29.843875473855203</v>
+      </c>
+      <c r="D42">
+        <v>0.9999924350534155</v>
+      </c>
+      <c r="E42">
+        <v>-0.004098977868199695</v>
+      </c>
+      <c r="F42">
+        <v>-0.0017204385128873198</v>
+      </c>
+      <c r="G42">
+        <v>-0.0005311097964616975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>120.71876551819638</v>
+      </c>
+      <c r="B43">
+        <v>217.47615153862697</v>
+      </c>
+      <c r="C43">
+        <v>29.857329182046428</v>
+      </c>
+      <c r="D43">
+        <v>0.9999795369641964</v>
+      </c>
+      <c r="E43">
+        <v>-0.004433795618094235</v>
+      </c>
+      <c r="F43">
+        <v>-0.005065073326736524</v>
+      </c>
+      <c r="G43">
+        <v>-1.424928174522453e-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>119.57857694795466</v>
+      </c>
+      <c r="B44">
+        <v>214.17926816991655</v>
+      </c>
+      <c r="C44">
+        <v>29.86810072043006</v>
+      </c>
+      <c r="D44">
+        <v>0.9999839323637811</v>
+      </c>
+      <c r="E44">
+        <v>-0.0038229052288979775</v>
+      </c>
+      <c r="F44">
+        <v>-0.004632878818685905</v>
+      </c>
+      <c r="G44">
+        <v>-1.0649914459669804e-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>118.86093955600772</v>
+      </c>
+      <c r="B45">
+        <v>210.777818175237</v>
+      </c>
+      <c r="C45">
+        <v>29.871394524075114</v>
+      </c>
+      <c r="D45">
+        <v>0.9999841241466416</v>
+      </c>
+      <c r="E45">
+        <v>-0.0032867684764882</v>
+      </c>
+      <c r="F45">
+        <v>-0.004986644512034937</v>
+      </c>
+      <c r="G45">
+        <v>-9.848437922655756e-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>117.1391535887247</v>
+      </c>
+      <c r="B46">
+        <v>207.59273868337658</v>
+      </c>
+      <c r="C46">
+        <v>29.850286314921576</v>
+      </c>
+      <c r="D46">
+        <v>1.000001437752494</v>
+      </c>
+      <c r="E46">
+        <v>0.00025664094600772586</v>
+      </c>
+      <c r="F46">
+        <v>6.45436254482847e-5</v>
+      </c>
+      <c r="G46">
+        <v>-0.00042328511381869944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>114.52175954362389</v>
+      </c>
+      <c r="B47">
+        <v>205.09271923382525</v>
+      </c>
+      <c r="C47">
+        <v>29.837423882408945</v>
+      </c>
+      <c r="D47">
+        <v>0.9999984976102991</v>
+      </c>
+      <c r="E47">
+        <v>0.0002901088903885445</v>
+      </c>
+      <c r="F47">
+        <v>0.0008893855158198679</v>
+      </c>
+      <c r="G47">
+        <v>0.00016000840606899397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>112.81701708995631</v>
+      </c>
+      <c r="B48">
+        <v>201.83792460709674</v>
+      </c>
+      <c r="C48">
+        <v>29.82166606709974</v>
+      </c>
+      <c r="D48">
+        <v>1.0000008695722418</v>
+      </c>
+      <c r="E48">
+        <v>-1.6315047206118065e-5</v>
+      </c>
+      <c r="F48">
+        <v>-1.4257658172747009e-5</v>
+      </c>
+      <c r="G48">
+        <v>-0.0003597627850288156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>110.19379027182457</v>
+      </c>
+      <c r="B49">
+        <v>199.24172268395418</v>
+      </c>
+      <c r="C49">
+        <v>29.816526041493844</v>
+      </c>
+      <c r="D49">
+        <v>0.9999995663714524</v>
+      </c>
+      <c r="E49">
+        <v>0.0002161382637395239</v>
+      </c>
+      <c r="F49">
+        <v>0.0006395877321767904</v>
+      </c>
+      <c r="G49">
+        <v>9.821373702620067e-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>107.06034350709324</v>
+      </c>
+      <c r="B50">
+        <v>197.3598247144208</v>
+      </c>
+      <c r="C50">
+        <v>29.82180723967556</v>
+      </c>
+      <c r="D50">
+        <v>0.9999902625001644</v>
+      </c>
+      <c r="E50">
+        <v>0.003105905595685334</v>
+      </c>
+      <c r="F50">
+        <v>0.0035962373718324238</v>
+      </c>
+      <c r="G50">
+        <v>-3.00742217498652e-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>104.50990975112548</v>
+      </c>
+      <c r="B51">
+        <v>194.6251707925887</v>
+      </c>
+      <c r="C51">
+        <v>29.81432014921034</v>
+      </c>
+      <c r="D51">
+        <v>1.0000013508829577</v>
+      </c>
+      <c r="E51">
+        <v>0.000981733504200201</v>
+      </c>
+      <c r="F51">
+        <v>-0.0012759248713437685</v>
+      </c>
+      <c r="G51">
+        <v>-3.327241901011119e-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>101.40704517960454</v>
+      </c>
+      <c r="B52">
+        <v>192.59200293944383</v>
+      </c>
+      <c r="C52">
+        <v>29.81853236521824</v>
+      </c>
+      <c r="D52">
+        <v>0.9999950245584811</v>
+      </c>
+      <c r="E52">
+        <v>0.0014236000161207203</v>
+      </c>
+      <c r="F52">
+        <v>0.002118025233097427</v>
+      </c>
+      <c r="G52">
+        <v>-0.00027973527558571823</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>98.84515246765373</v>
+      </c>
+      <c r="B53">
+        <v>189.81399815481993</v>
+      </c>
+      <c r="C53">
+        <v>29.806656037187196</v>
+      </c>
+      <c r="D53">
+        <v>1.0000013562756265</v>
+      </c>
+      <c r="E53">
+        <v>0.0010900035929174926</v>
+      </c>
+      <c r="F53">
+        <v>-7.041100964310636e-5</v>
+      </c>
+      <c r="G53">
+        <v>-0.0002676205316921392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>95.96588045870247</v>
+      </c>
+      <c r="B54">
+        <v>187.34935028110363</v>
+      </c>
+      <c r="C54">
+        <v>29.802881569125834</v>
+      </c>
+      <c r="D54">
+        <v>1.0000011773908979</v>
+      </c>
+      <c r="E54">
+        <v>-0.0005248028466423301</v>
+      </c>
+      <c r="F54">
+        <v>-0.0020943385367792654</v>
+      </c>
+      <c r="G54">
+        <v>-5.1836691841756755e-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>93.64582377016553</v>
+      </c>
+      <c r="B55">
+        <v>184.34334717374153</v>
+      </c>
+      <c r="C55">
+        <v>29.804229490328947</v>
+      </c>
+      <c r="D55">
+        <v>1.0000014135362434</v>
+      </c>
+      <c r="E55">
+        <v>0.00014320805285857223</v>
+      </c>
+      <c r="F55">
+        <v>0.00011806922346772564</v>
+      </c>
+      <c r="G55">
+        <v>-0.0004050060663661254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>91.92115175564776</v>
+      </c>
+      <c r="B56">
+        <v>181.01988451612777</v>
+      </c>
+      <c r="C56">
+        <v>29.815589113250148</v>
+      </c>
+      <c r="D56">
+        <v>0.9999924033494512</v>
+      </c>
+      <c r="E56">
+        <v>-0.0026799741502407802</v>
+      </c>
+      <c r="F56">
+        <v>-0.0033384242264275386</v>
+      </c>
+      <c r="G56">
+        <v>-0.00028301918803284957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>89.14861671109058</v>
+      </c>
+      <c r="B57">
+        <v>178.41296382681912</v>
+      </c>
+      <c r="C57">
+        <v>29.80806496496273</v>
+      </c>
+      <c r="D57">
+        <v>1.0000004541754748</v>
+      </c>
+      <c r="E57">
+        <v>-0.0011836640548460637</v>
+      </c>
+      <c r="F57">
+        <v>-0.002492595991584414</v>
+      </c>
+      <c r="G57">
+        <v>-0.0001022165707750552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>85.81338994286186</v>
+      </c>
+      <c r="B58">
+        <v>176.7373996421573</v>
+      </c>
+      <c r="C58">
+        <v>29.817533081725205</v>
+      </c>
+      <c r="D58">
+        <v>0.9999902616207251</v>
+      </c>
+      <c r="E58">
+        <v>0.003688913988195947</v>
+      </c>
+      <c r="F58">
+        <v>0.0029967121498758924</v>
+      </c>
+      <c r="G58">
+        <v>-2.682499753883715e-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>83.05252208383601</v>
+      </c>
+      <c r="B59">
+        <v>174.07888640243164</v>
+      </c>
+      <c r="C59">
+        <v>29.81207564067007</v>
+      </c>
+      <c r="D59">
+        <v>1.0000008325310223</v>
+      </c>
+      <c r="E59">
+        <v>0.0009636974461108445</v>
+      </c>
+      <c r="F59">
+        <v>-0.0005228107411054963</v>
+      </c>
+      <c r="G59">
+        <v>-1.3995491040048992e-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>79.76222974790227</v>
+      </c>
+      <c r="B60">
+        <v>172.2178454468497</v>
+      </c>
+      <c r="C60">
+        <v>29.818207929172146</v>
+      </c>
+      <c r="D60">
+        <v>0.9999906916857381</v>
+      </c>
+      <c r="E60">
+        <v>9.311245469215471e-5</v>
+      </c>
+      <c r="F60">
+        <v>0.0008597244610952736</v>
+      </c>
+      <c r="G60">
+        <v>-0.0022020573809316585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>76.98493490011276</v>
+      </c>
+      <c r="B61">
+        <v>169.55862381821134</v>
+      </c>
+      <c r="C61">
+        <v>29.80659615676984</v>
+      </c>
+      <c r="D61">
+        <v>1.000001348025989</v>
+      </c>
+      <c r="E61">
+        <v>0.0010451675383694643</v>
+      </c>
+      <c r="F61">
+        <v>0.00017122136956875753</v>
+      </c>
+      <c r="G61">
+        <v>-0.00020072150527279876</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>73.9334991906317</v>
+      </c>
+      <c r="B62">
+        <v>167.19578751893806</v>
+      </c>
+      <c r="C62">
+        <v>29.801567384674545</v>
+      </c>
+      <c r="D62">
+        <v>1.0000009426210321</v>
+      </c>
+      <c r="E62">
+        <v>-0.000511997608549318</v>
+      </c>
+      <c r="F62">
+        <v>-0.0015253764774150406</v>
+      </c>
+      <c r="G62">
+        <v>-2.797375303666539e-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>70.38629197845195</v>
+      </c>
+      <c r="B63">
+        <v>165.94482029148156</v>
+      </c>
+      <c r="C63">
+        <v>29.81491148185441</v>
+      </c>
+      <c r="D63">
+        <v>0.9999905466142666</v>
+      </c>
+      <c r="E63">
+        <v>0.004055578740544406</v>
+      </c>
+      <c r="F63">
+        <v>0.00235004617063118</v>
+      </c>
+      <c r="G63">
+        <v>-2.4863602756290143e-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>67.1451638107585</v>
+      </c>
+      <c r="B64">
+        <v>163.85586478545875</v>
+      </c>
+      <c r="C64">
+        <v>29.8111018694919</v>
+      </c>
+      <c r="D64">
+        <v>1.0000008488453325</v>
+      </c>
+      <c r="E64">
+        <v>-0.0003808955131964531</v>
+      </c>
+      <c r="F64">
+        <v>-0.0013559379941350052</v>
+      </c>
+      <c r="G64">
+        <v>-4.483090660891655e-6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>63.87900922241173</v>
+      </c>
+      <c r="B65">
+        <v>164.37847177849045</v>
+      </c>
+      <c r="C65">
+        <v>29.869400869059966</v>
+      </c>
+      <c r="D65">
+        <v>0.999962552269972</v>
+      </c>
+      <c r="E65">
+        <v>0.008898432644477046</v>
+      </c>
+      <c r="F65">
+        <v>0.0006371028587830092</v>
+      </c>
+      <c r="G65">
+        <v>3.116101028717008e-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>60.665426936352</v>
+      </c>
+      <c r="B66">
+        <v>162.48690496543273</v>
+      </c>
+      <c r="C66">
+        <v>29.856894967358116</v>
+      </c>
+      <c r="D66">
+        <v>1.0000014630383867</v>
+      </c>
+      <c r="E66">
+        <v>0.001132415869669846</v>
+      </c>
+      <c r="F66">
+        <v>-0.00028276609297248393</v>
+      </c>
+      <c r="G66">
+        <v>-0.0011285517957230738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>57.098847595344346</v>
+      </c>
+      <c r="B67">
+        <v>161.4021399432572</v>
+      </c>
+      <c r="C67">
+        <v>29.838582278217928</v>
+      </c>
+      <c r="D67">
+        <v>0.9999957833384878</v>
+      </c>
+      <c r="E67">
+        <v>-0.001259827991404223</v>
+      </c>
+      <c r="F67">
+        <v>-0.0006896290593199778</v>
+      </c>
+      <c r="G67">
+        <v>-6.476699471711874e-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>53.99018347629093</v>
+      </c>
+      <c r="B68">
+        <v>159.29901753927453</v>
+      </c>
+      <c r="C68">
+        <v>29.820442934654178</v>
+      </c>
+      <c r="D68">
+        <v>1.0000006635773633</v>
+      </c>
+      <c r="E68">
+        <v>-8.753700637642143e-5</v>
+      </c>
+      <c r="F68">
+        <v>-2.587700387847006e-5</v>
+      </c>
+      <c r="G68">
+        <v>-0.00044361290090067656</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>50.63281041143061</v>
+      </c>
+      <c r="B69">
+        <v>159.94671039418193</v>
+      </c>
+      <c r="C69">
+        <v>29.853194826294953</v>
+      </c>
+      <c r="D69">
+        <v>0.9999731693406009</v>
+      </c>
+      <c r="E69">
+        <v>0.007635693887882994</v>
+      </c>
+      <c r="F69">
+        <v>0.0004974009400510673</v>
+      </c>
+      <c r="G69">
+        <v>1.2388621348608796e-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>47.33220156251854</v>
+      </c>
+      <c r="B70">
+        <v>160.90388992361238</v>
+      </c>
+      <c r="C70">
+        <v>29.877743525643115</v>
+      </c>
+      <c r="D70">
+        <v>0.9999785041070213</v>
+      </c>
+      <c r="E70">
+        <v>0.006900772407529357</v>
+      </c>
+      <c r="F70">
+        <v>0.00018980592539435484</v>
+      </c>
+      <c r="G70">
+        <v>6.116064900539504e-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>44.15306424974052</v>
+      </c>
+      <c r="B71">
+        <v>159.22288967555832</v>
+      </c>
+      <c r="C71">
+        <v>29.868598816908587</v>
+      </c>
+      <c r="D71">
+        <v>0.9999923430410609</v>
+      </c>
+      <c r="E71">
+        <v>-0.004372966606802283</v>
+      </c>
+      <c r="F71">
+        <v>-0.00018176503217647732</v>
+      </c>
+      <c r="G71">
+        <v>-0.0013461925626702923</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>40.84338910671865</v>
+      </c>
+      <c r="B72">
+        <v>157.6656010523993</v>
+      </c>
+      <c r="C72">
+        <v>29.84215513204923</v>
+      </c>
+      <c r="D72">
+        <v>0.9999996656881678</v>
+      </c>
+      <c r="E72">
+        <v>-0.0008116816644492117</v>
+      </c>
+      <c r="F72">
+        <v>7.668280086862898e-5</v>
+      </c>
+      <c r="G72">
+        <v>-0.0003225505034414902</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>38.39678762031399</v>
+      </c>
+      <c r="B73">
+        <v>155.11746344341995</v>
+      </c>
+      <c r="C73">
+        <v>29.846924283425633</v>
+      </c>
+      <c r="D73">
+        <v>0.999984426735407</v>
+      </c>
+      <c r="E73">
+        <v>-0.0052349192409847645</v>
+      </c>
+      <c r="F73">
+        <v>-0.0027489174125988097</v>
+      </c>
+      <c r="G73">
+        <v>-1.1984824537579309e-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>35.32227344611003</v>
+      </c>
+      <c r="B74">
+        <v>153.1206559093379</v>
+      </c>
+      <c r="C74">
+        <v>29.837961702721003</v>
+      </c>
+      <c r="D74">
+        <v>1.0000006775311796</v>
+      </c>
+      <c r="E74">
+        <v>-4.0315015323310745e-5</v>
+      </c>
+      <c r="F74">
+        <v>-5.198842288598977e-6</v>
+      </c>
+      <c r="G74">
+        <v>-0.0004173553279473333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>32.08066110763042</v>
+      </c>
+      <c r="B75">
+        <v>151.309445331084</v>
+      </c>
+      <c r="C75">
+        <v>29.81930895267295</v>
+      </c>
+      <c r="D75">
+        <v>1.0000012786921757</v>
+      </c>
+      <c r="E75">
+        <v>0.0010260039041551064</v>
+      </c>
+      <c r="F75">
+        <v>-0.0005971099368375764</v>
+      </c>
+      <c r="G75">
+        <v>-0.0004365430442212192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>29.271777085451546</v>
+      </c>
+      <c r="B76">
+        <v>148.91776235111635</v>
+      </c>
+      <c r="C76">
+        <v>29.820383693619245</v>
+      </c>
+      <c r="D76">
+        <v>0.9999982631320926</v>
+      </c>
+      <c r="E76">
+        <v>-0.0012642654777376095</v>
+      </c>
+      <c r="F76">
+        <v>-0.0004846608249292559</v>
+      </c>
+      <c r="G76">
+        <v>-0.0005163234895282041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>26.053335102537275</v>
+      </c>
+      <c r="B77">
+        <v>146.97357888580567</v>
+      </c>
+      <c r="C77">
+        <v>29.803336085407317</v>
+      </c>
+      <c r="D77">
+        <v>1.0000012726643315</v>
+      </c>
+      <c r="E77">
+        <v>0.0010739830832907863</v>
+      </c>
+      <c r="F77">
+        <v>-0.001070631573487217</v>
+      </c>
+      <c r="G77">
+        <v>-3.188429355121922e-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>24.596933809381884</v>
+      </c>
+      <c r="B78">
+        <v>143.8223683131837</v>
+      </c>
+      <c r="C78">
+        <v>29.83907938973888</v>
+      </c>
+      <c r="D78">
+        <v>0.999977034180596</v>
+      </c>
+      <c r="E78">
+        <v>-0.004537587998206426</v>
+      </c>
+      <c r="F78">
+        <v>-0.005472169861540014</v>
+      </c>
+      <c r="G78">
+        <v>-1.612590040587195e-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>23.67489047686613</v>
+      </c>
+      <c r="B79">
+        <v>140.537548052049</v>
+      </c>
+      <c r="C79">
+        <v>29.872835101664197</v>
+      </c>
+      <c r="D79">
+        <v>0.999976763105075</v>
+      </c>
+      <c r="E79">
+        <v>-0.003918561167612399</v>
+      </c>
+      <c r="F79">
+        <v>-0.005982971089038606</v>
+      </c>
+      <c r="G79">
+        <v>-1.5239432593495242e-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>23.3964997069934</v>
+      </c>
+      <c r="B80">
+        <v>137.21822538863609</v>
+      </c>
+      <c r="C80">
+        <v>29.896399519130366</v>
+      </c>
+      <c r="D80">
+        <v>0.9999747621233823</v>
+      </c>
+      <c r="E80">
+        <v>-0.003118581491186585</v>
+      </c>
+      <c r="F80">
+        <v>-0.0067497348316496635</v>
+      </c>
+      <c r="G80">
+        <v>-1.447442825724592e-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>23.130159083003953</v>
+      </c>
+      <c r="B81">
+        <v>133.7844778533105</v>
+      </c>
+      <c r="C81">
+        <v>29.892124833702116</v>
+      </c>
+      <c r="D81">
+        <v>0.9999841995133698</v>
+      </c>
+      <c r="E81">
+        <v>-0.0028001597842443873</v>
+      </c>
+      <c r="F81">
+        <v>-0.005261120979257759</v>
+      </c>
+      <c r="G81">
+        <v>-9.323088220908345e-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States2.xlsx
+++ b/src/Quadrotor_States2.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,2762 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>17.62848709071008</v>
+        <v>239.99999368531783</v>
       </c>
       <c r="B2">
-        <v>9.999391469003468</v>
+        <v>349.84896502328655</v>
       </c>
       <c r="C2">
-        <v>5.040899902413842</v>
+        <v>13.551025092281309</v>
       </c>
       <c r="D2">
-        <v>0.9999942024253916</v>
+        <v>1.000000700833889</v>
       </c>
       <c r="E2">
-        <v>3.77748987197559e-7</v>
+        <v>0.0008937830029435947</v>
       </c>
       <c r="F2">
-        <v>0.00309024799343803</v>
+        <v>2.507817550246907e-7</v>
       </c>
       <c r="G2">
-        <v>-2.245539786685725e-5</v>
+        <v>-1.3669128987138205e-5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18.713900052556728</v>
+        <v>239.7218111019277</v>
       </c>
       <c r="B3">
-        <v>9.838430399167853</v>
+        <v>349.83850181279</v>
       </c>
       <c r="C3">
-        <v>4.950176739107367</v>
+        <v>17.37913715234808</v>
       </c>
       <c r="D3">
-        <v>0.9999837076665038</v>
+        <v>1.0000014602299092</v>
       </c>
       <c r="E3">
-        <v>-9.292346900093892e-5</v>
+        <v>0.0007022107635385477</v>
       </c>
       <c r="F3">
-        <v>-0.0005760202121334167</v>
+        <v>-0.0016783274374450815</v>
       </c>
       <c r="G3">
-        <v>0.001715942020343479</v>
+        <v>-3.309252509017256e-5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>17.668148721641</v>
+        <v>239.4254969480537</v>
       </c>
       <c r="B4">
-        <v>9.245348644861782</v>
+        <v>350.4465065758744</v>
       </c>
       <c r="C4">
-        <v>4.649783654172712</v>
+        <v>21.185706647300236</v>
       </c>
       <c r="D4">
-        <v>0.9999847620742688</v>
+        <v>0.99999950419077</v>
       </c>
       <c r="E4">
-        <v>0.0005079159745658539</v>
+        <v>-0.00022605595654067665</v>
       </c>
       <c r="F4">
-        <v>-0.001985345125590763</v>
+        <v>-1.163629096575901e-5</v>
       </c>
       <c r="G4">
-        <v>-0.011797185719264974</v>
+        <v>-0.0007786358180167649</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>17.424082509845224</v>
+        <v>238.8544088834607</v>
       </c>
       <c r="B5">
-        <v>9.312810201957355</v>
+        <v>349.0774848513204</v>
       </c>
       <c r="C5">
-        <v>4.596823763626849</v>
+        <v>24.45957941818476</v>
       </c>
       <c r="D5">
-        <v>1.0000081107251038</v>
+        <v>0.9999883834831342</v>
       </c>
       <c r="E5">
-        <v>-0.000201354149438168</v>
+        <v>-0.004921400909578373</v>
       </c>
       <c r="F5">
-        <v>-2.8236543995893706e-5</v>
+        <v>0.0015453500956874322</v>
       </c>
       <c r="G5">
-        <v>-0.010352964085763156</v>
+        <v>-1.0518687508192486e-5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>16.972626419073254</v>
+        <v>238.44576831994237</v>
       </c>
       <c r="B6">
-        <v>9.151068267512482</v>
+        <v>348.9329273679068</v>
       </c>
       <c r="C6">
-        <v>4.566423219353229</v>
+        <v>28.130417379814816</v>
       </c>
       <c r="D6">
-        <v>1.0000068869837393</v>
+        <v>1.0000007917175031</v>
       </c>
       <c r="E6">
-        <v>0.0005068454391557586</v>
+        <v>-0.0006065449208611918</v>
       </c>
       <c r="F6">
-        <v>5.576898847915708e-5</v>
+        <v>-0.0011914962180107351</v>
       </c>
       <c r="G6">
-        <v>-0.010844291787734835</v>
+        <v>-2.0496070119276272e-6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>16.542314522800815</v>
+        <v>239.99268265597914</v>
       </c>
       <c r="B7">
-        <v>9.052124915174685</v>
+        <v>347.1291055035457</v>
       </c>
       <c r="C7">
-        <v>4.554054510466616</v>
+        <v>29.18787484155674</v>
       </c>
       <c r="D7">
-        <v>0.9999997068823594</v>
+        <v>0.9999733418529017</v>
       </c>
       <c r="E7">
-        <v>0.00014530312673760527</v>
+        <v>-0.005134713944418205</v>
       </c>
       <c r="F7">
-        <v>3.7906947963938635e-5</v>
+        <v>-0.005871875434494714</v>
       </c>
       <c r="G7">
-        <v>-0.011729775614114814</v>
+        <v>-4.658478797440493e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>16.117916782219808</v>
+        <v>240.00906407326735</v>
       </c>
       <c r="B8">
-        <v>8.979778985596013</v>
+        <v>344.48259866361366</v>
       </c>
       <c r="C8">
-        <v>4.546387094984614</v>
+        <v>29.707183481168464</v>
       </c>
       <c r="D8">
-        <v>1.0000000887299738</v>
+        <v>0.9999759516594112</v>
       </c>
       <c r="E8">
-        <v>0.00030843248975354537</v>
+        <v>-0.00724779090505828</v>
       </c>
       <c r="F8">
-        <v>-8.258983686187593e-5</v>
+        <v>6.938399889074414e-5</v>
       </c>
       <c r="G8">
-        <v>-0.011745571151263609</v>
+        <v>-2.8398440074169673e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>15.680635937661801</v>
+        <v>240.20280120211862</v>
       </c>
       <c r="B9">
-        <v>8.909042070975445</v>
+        <v>341.6442980269713</v>
       </c>
       <c r="C9">
-        <v>4.54280826896338</v>
+        <v>29.937301750892225</v>
       </c>
       <c r="D9">
-        <v>0.999999718094049</v>
+        <v>0.9999823182587653</v>
       </c>
       <c r="E9">
-        <v>-8.973409267214712e-5</v>
+        <v>-0.006259440064576482</v>
       </c>
       <c r="F9">
-        <v>-7.23392294679589e-5</v>
+        <v>-0.0005431035196598434</v>
       </c>
       <c r="G9">
-        <v>-0.011936570267016774</v>
+        <v>-1.8208141512987745e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>15.25187453794657</v>
+        <v>240.53076033388635</v>
       </c>
       <c r="B10">
-        <v>8.846264326630815</v>
+        <v>338.6538277610314</v>
       </c>
       <c r="C10">
-        <v>4.542398603140753</v>
+        <v>29.999946707802675</v>
       </c>
       <c r="D10">
-        <v>1.0000002779951143</v>
+        <v>0.9999864464723842</v>
       </c>
       <c r="E10">
-        <v>0.00013027894956557206</v>
+        <v>-0.005455209617033104</v>
       </c>
       <c r="F10">
-        <v>4.0338731895527574e-8</v>
+        <v>-0.0008881617139818458</v>
       </c>
       <c r="G10">
-        <v>-0.011715964458280752</v>
+        <v>-8.408289463499118e-6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>14.815874710780177</v>
+        <v>239.1179260228709</v>
       </c>
       <c r="B11">
-        <v>8.732570309225823</v>
+        <v>335.9806385935391</v>
       </c>
       <c r="C11">
-        <v>4.544447296253564</v>
+        <v>29.996918665408014</v>
       </c>
       <c r="D11">
-        <v>0.9999996494004634</v>
+        <v>0.9999839050333653</v>
       </c>
       <c r="E11">
-        <v>0.00016019430073837523</v>
+        <v>-0.0030194786523960924</v>
       </c>
       <c r="F11">
-        <v>-2.6213859901130754e-5</v>
+        <v>0.005173059125911026</v>
       </c>
       <c r="G11">
-        <v>-0.012042192073231454</v>
+        <v>-1.5545523636773266e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>237.45171369108434</v>
+      </c>
+      <c r="B12">
+        <v>333.32234238748066</v>
+      </c>
+      <c r="C12">
+        <v>29.996711027092626</v>
+      </c>
+      <c r="D12">
+        <v>0.9999793545923069</v>
+      </c>
+      <c r="E12">
+        <v>-0.0027001531153525403</v>
+      </c>
+      <c r="F12">
+        <v>0.005731512232896415</v>
+      </c>
+      <c r="G12">
+        <v>-2.784145240391668e-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>235.8416879660095</v>
+      </c>
+      <c r="B13">
+        <v>330.4685561125833</v>
+      </c>
+      <c r="C13">
+        <v>29.997343692595564</v>
+      </c>
+      <c r="D13">
+        <v>0.9999871186067121</v>
+      </c>
+      <c r="E13">
+        <v>-0.002832287413112965</v>
+      </c>
+      <c r="F13">
+        <v>0.004155663783737029</v>
+      </c>
+      <c r="G13">
+        <v>-8.600008452115663e-17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>235.22546427358415</v>
+      </c>
+      <c r="B14">
+        <v>327.1382089456598</v>
+      </c>
+      <c r="C14">
+        <v>29.997415354245753</v>
+      </c>
+      <c r="D14">
+        <v>0.9999913696677506</v>
+      </c>
+      <c r="E14">
+        <v>-0.00406722966815991</v>
+      </c>
+      <c r="F14">
+        <v>-0.0007097308921358895</v>
+      </c>
+      <c r="G14">
+        <v>-7.31624904508434e-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>234.55278630001715</v>
+      </c>
+      <c r="B15">
+        <v>323.7279178013337</v>
+      </c>
+      <c r="C15">
+        <v>29.99999974806992</v>
+      </c>
+      <c r="D15">
+        <v>0.9999939318940132</v>
+      </c>
+      <c r="E15">
+        <v>-0.0034531722808005764</v>
+      </c>
+      <c r="F15">
+        <v>-0.0003242966715684651</v>
+      </c>
+      <c r="G15">
+        <v>-6.602977974731812e-16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>234.37943462768843</v>
+      </c>
+      <c r="B16">
+        <v>320.3693024936039</v>
+      </c>
+      <c r="C16">
+        <v>29.99880685315947</v>
+      </c>
+      <c r="D16">
+        <v>1.0000012013316646</v>
+      </c>
+      <c r="E16">
+        <v>-0.0002756978495191253</v>
+      </c>
+      <c r="F16">
+        <v>-0.00022614824045963725</v>
+      </c>
+      <c r="G16">
+        <v>0.00032410349755272305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>233.72307607659783</v>
+      </c>
+      <c r="B17">
+        <v>316.958115944823</v>
+      </c>
+      <c r="C17">
+        <v>29.999884751597328</v>
+      </c>
+      <c r="D17">
+        <v>1.0000020633323083</v>
+      </c>
+      <c r="E17">
+        <v>0.0011731753510208667</v>
+      </c>
+      <c r="F17">
+        <v>-0.00011092656361099699</v>
+      </c>
+      <c r="G17">
+        <v>0.0006280228564229379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>233.07105675567598</v>
+      </c>
+      <c r="B18">
+        <v>313.48346702280946</v>
+      </c>
+      <c r="C18">
+        <v>29.99777834636942</v>
+      </c>
+      <c r="D18">
+        <v>1.000001958565277</v>
+      </c>
+      <c r="E18">
+        <v>0.0011939575479969881</v>
+      </c>
+      <c r="F18">
+        <v>-8.386745780502943e-5</v>
+      </c>
+      <c r="G18">
+        <v>0.0003285600230484264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>231.11805405213548</v>
+      </c>
+      <c r="B19">
+        <v>310.5150843546534</v>
+      </c>
+      <c r="C19">
+        <v>29.99705275359309</v>
+      </c>
+      <c r="D19">
+        <v>0.9999859196083826</v>
+      </c>
+      <c r="E19">
+        <v>0.0005373536386552016</v>
+      </c>
+      <c r="F19">
+        <v>0.005226328358867601</v>
+      </c>
+      <c r="G19">
+        <v>1.3121630907888697e-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>230.2061991563265</v>
+      </c>
+      <c r="B20">
+        <v>306.93292605976364</v>
+      </c>
+      <c r="C20">
+        <v>29.999999631421343</v>
+      </c>
+      <c r="D20">
+        <v>0.9999979695911967</v>
+      </c>
+      <c r="E20">
+        <v>-0.002010481291333119</v>
+      </c>
+      <c r="F20">
+        <v>-8.132747787762833e-5</v>
+      </c>
+      <c r="G20">
+        <v>-1.6532960673885394e-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>229.58504990829388</v>
+      </c>
+      <c r="B21">
+        <v>303.3393684548357</v>
+      </c>
+      <c r="C21">
+        <v>29.997935175558723</v>
+      </c>
+      <c r="D21">
+        <v>1.0000015447875015</v>
+      </c>
+      <c r="E21">
+        <v>0.0009179475452016752</v>
+      </c>
+      <c r="F21">
+        <v>0.0006890079713004402</v>
+      </c>
+      <c r="G21">
+        <v>0.00024950463025496264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>229.15613172798345</v>
+      </c>
+      <c r="B22">
+        <v>299.6162661836858</v>
+      </c>
+      <c r="C22">
+        <v>29.99698285142864</v>
+      </c>
+      <c r="D22">
+        <v>0.9999970405492797</v>
+      </c>
+      <c r="E22">
+        <v>-0.0017395481957095072</v>
+      </c>
+      <c r="F22">
+        <v>-0.0016932109098005722</v>
+      </c>
+      <c r="G22">
+        <v>-1.2202204436912741e-17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>229.53749966005643</v>
+      </c>
+      <c r="B23">
+        <v>295.94503165814973</v>
+      </c>
+      <c r="C23">
+        <v>29.999999599544992</v>
+      </c>
+      <c r="D23">
+        <v>0.9999889821088417</v>
+      </c>
+      <c r="E23">
+        <v>-0.0011391384387362921</v>
+      </c>
+      <c r="F23">
+        <v>-0.00451612787539421</v>
+      </c>
+      <c r="G23">
+        <v>-2.23102478490073e-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>229.77147749215862</v>
+      </c>
+      <c r="B24">
+        <v>292.2793220766956</v>
+      </c>
+      <c r="C24">
+        <v>29.9987807654607</v>
+      </c>
+      <c r="D24">
+        <v>1.0000005210354201</v>
+      </c>
+      <c r="E24">
+        <v>0.00019531660626550835</v>
+      </c>
+      <c r="F24">
+        <v>0.0006110057078358025</v>
+      </c>
+      <c r="G24">
+        <v>0.0007062310589492112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>230.52370317765127</v>
+      </c>
+      <c r="B25">
+        <v>288.7154419896452</v>
+      </c>
+      <c r="C25">
+        <v>29.999975852574373</v>
+      </c>
+      <c r="D25">
+        <v>0.9999930362436243</v>
+      </c>
+      <c r="E25">
+        <v>-0.0002747856038787073</v>
+      </c>
+      <c r="F25">
+        <v>-0.004684792531211688</v>
+      </c>
+      <c r="G25">
+        <v>0.0008612699972113468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>231.09671865484256</v>
+      </c>
+      <c r="B26">
+        <v>285.0575215684275</v>
+      </c>
+      <c r="C26">
+        <v>29.998250441178673</v>
+      </c>
+      <c r="D26">
+        <v>1.0000010560215942</v>
+      </c>
+      <c r="E26">
+        <v>0.0001895099171365154</v>
+      </c>
+      <c r="F26">
+        <v>0.0008443550233198161</v>
+      </c>
+      <c r="G26">
+        <v>0.0003538791475432756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>232.77454822165546</v>
+      </c>
+      <c r="B27">
+        <v>281.8635969491762</v>
+      </c>
+      <c r="C27">
+        <v>29.996853496694623</v>
+      </c>
+      <c r="D27">
+        <v>0.9999987115484403</v>
+      </c>
+      <c r="E27">
+        <v>0.0008512462178367402</v>
+      </c>
+      <c r="F27">
+        <v>-0.003932162074778707</v>
+      </c>
+      <c r="G27">
+        <v>-6.520831045756823e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>233.81666114927754</v>
+      </c>
+      <c r="B28">
+        <v>278.2287167234346</v>
+      </c>
+      <c r="C28">
+        <v>29.998228826174607</v>
+      </c>
+      <c r="D28">
+        <v>0.9999969968468256</v>
+      </c>
+      <c r="E28">
+        <v>-0.000685879344850219</v>
+      </c>
+      <c r="F28">
+        <v>-0.002347164473837141</v>
+      </c>
+      <c r="G28">
+        <v>7.251599056861816e-18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>234.89191850727573</v>
+      </c>
+      <c r="B29">
+        <v>274.67350376340954</v>
+      </c>
+      <c r="C29">
+        <v>29.999612309292566</v>
+      </c>
+      <c r="D29">
+        <v>1.000001199907432</v>
+      </c>
+      <c r="E29">
+        <v>0.0003901792312798665</v>
+      </c>
+      <c r="F29">
+        <v>0.003567370436521218</v>
+      </c>
+      <c r="G29">
+        <v>0.0006044769857935769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>236.19747270886967</v>
+      </c>
+      <c r="B30">
+        <v>271.17233138785355</v>
+      </c>
+      <c r="C30">
+        <v>29.999431090873188</v>
+      </c>
+      <c r="D30">
+        <v>1.0000022176726353</v>
+      </c>
+      <c r="E30">
+        <v>-5.4640926764705504e-5</v>
+      </c>
+      <c r="F30">
+        <v>0.0028458663773436783</v>
+      </c>
+      <c r="G30">
+        <v>-4.946799141395348e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>237.40921442303497</v>
+      </c>
+      <c r="B31">
+        <v>267.58912011325594</v>
+      </c>
+      <c r="C31">
+        <v>29.99888481127965</v>
+      </c>
+      <c r="D31">
+        <v>1.000001818990349</v>
+      </c>
+      <c r="E31">
+        <v>0.0004429231146605364</v>
+      </c>
+      <c r="F31">
+        <v>0.0023027035197121953</v>
+      </c>
+      <c r="G31">
+        <v>-4.079467150587752e-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>236.19337151825852</v>
+      </c>
+      <c r="B32">
+        <v>264.324055603539</v>
+      </c>
+      <c r="C32">
+        <v>29.995769753310444</v>
+      </c>
+      <c r="D32">
+        <v>0.9999742867330537</v>
+      </c>
+      <c r="E32">
+        <v>0.0008965924690597061</v>
+      </c>
+      <c r="F32">
+        <v>0.007333538793530483</v>
+      </c>
+      <c r="G32">
+        <v>1.6220789341096422e-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>236.99103019181265</v>
+      </c>
+      <c r="B33">
+        <v>260.6110274742876</v>
+      </c>
+      <c r="C33">
+        <v>29.998668425506764</v>
+      </c>
+      <c r="D33">
+        <v>0.9999984553371337</v>
+      </c>
+      <c r="E33">
+        <v>-0.0009709467608832825</v>
+      </c>
+      <c r="F33">
+        <v>-0.0014626984922380707</v>
+      </c>
+      <c r="G33">
+        <v>-3.5264539236650537e-16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>237.42666097724046</v>
+      </c>
+      <c r="B34">
+        <v>256.9232000701954</v>
+      </c>
+      <c r="C34">
+        <v>29.997590924335945</v>
+      </c>
+      <c r="D34">
+        <v>1.0000010184217822</v>
+      </c>
+      <c r="E34">
+        <v>0.004530438692821011</v>
+      </c>
+      <c r="F34">
+        <v>-0.002124513891659895</v>
+      </c>
+      <c r="G34">
+        <v>-0.00017106984301930726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>237.7110852110964</v>
+      </c>
+      <c r="B35">
+        <v>253.09390908559234</v>
+      </c>
+      <c r="C35">
+        <v>29.99999962796474</v>
+      </c>
+      <c r="D35">
+        <v>0.9999990798371319</v>
+      </c>
+      <c r="E35">
+        <v>-0.001067916825130463</v>
+      </c>
+      <c r="F35">
+        <v>0.0008350852162753867</v>
+      </c>
+      <c r="G35">
+        <v>3.500634931167552e-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>238.39158539311217</v>
+      </c>
+      <c r="B36">
+        <v>249.40601809288168</v>
+      </c>
+      <c r="C36">
+        <v>29.99736169291861</v>
+      </c>
+      <c r="D36">
+        <v>1.0000016351490195</v>
+      </c>
+      <c r="E36">
+        <v>0.0025397449009591892</v>
+      </c>
+      <c r="F36">
+        <v>0.008955371577237999</v>
+      </c>
+      <c r="G36">
+        <v>0.0002560919589895514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>240.17406817814103</v>
+      </c>
+      <c r="B37">
+        <v>246.127076461515</v>
+      </c>
+      <c r="C37">
+        <v>29.99703476661118</v>
+      </c>
+      <c r="D37">
+        <v>0.9999858350127048</v>
+      </c>
+      <c r="E37">
+        <v>0.0014067301396066987</v>
+      </c>
+      <c r="F37">
+        <v>-0.0050781295591965665</v>
+      </c>
+      <c r="G37">
+        <v>6.12491297634818e-16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>242.43431393381357</v>
+      </c>
+      <c r="B38">
+        <v>243.2600091313839</v>
+      </c>
+      <c r="C38">
+        <v>29.996593998044986</v>
+      </c>
+      <c r="D38">
+        <v>0.9999789075394593</v>
+      </c>
+      <c r="E38">
+        <v>0.0027098519383082394</v>
+      </c>
+      <c r="F38">
+        <v>-0.005798897089047413</v>
+      </c>
+      <c r="G38">
+        <v>-3.2577381253952964e-17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>244.16266270021654</v>
+      </c>
+      <c r="B39">
+        <v>239.85904755375208</v>
+      </c>
+      <c r="C39">
+        <v>29.996691427426512</v>
+      </c>
+      <c r="D39">
+        <v>0.9999971805082125</v>
+      </c>
+      <c r="E39">
+        <v>-1.7154487179781812e-5</v>
+      </c>
+      <c r="F39">
+        <v>-0.002369633860415269</v>
+      </c>
+      <c r="G39">
+        <v>2.2136504048305266e-16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>246.12273368743146</v>
+      </c>
+      <c r="B40">
+        <v>236.57913512326937</v>
+      </c>
+      <c r="C40">
+        <v>29.999999687793697</v>
+      </c>
+      <c r="D40">
+        <v>0.9999961063577257</v>
+      </c>
+      <c r="E40">
+        <v>0.000465059946802093</v>
+      </c>
+      <c r="F40">
+        <v>-0.0027434684941955445</v>
+      </c>
+      <c r="G40">
+        <v>4.3570561302201454e-16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>247.78342754610276</v>
+      </c>
+      <c r="B41">
+        <v>233.20216488156035</v>
+      </c>
+      <c r="C41">
+        <v>29.997985087228976</v>
+      </c>
+      <c r="D41">
+        <v>1.0000043652803599</v>
+      </c>
+      <c r="E41">
+        <v>0.00022360428989542464</v>
+      </c>
+      <c r="F41">
+        <v>0.008301507147235323</v>
+      </c>
+      <c r="G41">
+        <v>0.00027864521336713185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>249.72643199129774</v>
+      </c>
+      <c r="B42">
+        <v>229.86384137978706</v>
+      </c>
+      <c r="C42">
+        <v>29.99999968442842</v>
+      </c>
+      <c r="D42">
+        <v>0.9999982632980203</v>
+      </c>
+      <c r="E42">
+        <v>0.0001324744224739496</v>
+      </c>
+      <c r="F42">
+        <v>-0.0018565935955298062</v>
+      </c>
+      <c r="G42">
+        <v>2.5595416579431143e-16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>249.17732117843084</v>
+      </c>
+      <c r="B43">
+        <v>226.3879604159831</v>
+      </c>
+      <c r="C43">
+        <v>29.999999997375166</v>
+      </c>
+      <c r="D43">
+        <v>0.9999984327010915</v>
+      </c>
+      <c r="E43">
+        <v>-0.0002548014813960197</v>
+      </c>
+      <c r="F43">
+        <v>0.004855206627069958</v>
+      </c>
+      <c r="G43">
+        <v>-1.1396199667665554e-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>248.2160815257804</v>
+      </c>
+      <c r="B44">
+        <v>223.02991146972923</v>
+      </c>
+      <c r="C44">
+        <v>29.99581598108368</v>
+      </c>
+      <c r="D44">
+        <v>0.9999787535153002</v>
+      </c>
+      <c r="E44">
+        <v>0.00011032315458289607</v>
+      </c>
+      <c r="F44">
+        <v>0.006830718926741487</v>
+      </c>
+      <c r="G44">
+        <v>-9.539815534793847e-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>247.58209891778768</v>
+      </c>
+      <c r="B45">
+        <v>219.42056148281378</v>
+      </c>
+      <c r="C45">
+        <v>29.9970886806932</v>
+      </c>
+      <c r="D45">
+        <v>0.9999875750874249</v>
+      </c>
+      <c r="E45">
+        <v>-0.0008925267358071386</v>
+      </c>
+      <c r="F45">
+        <v>0.004859710654056076</v>
+      </c>
+      <c r="G45">
+        <v>1.2577008575138888e-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>246.11126858273738</v>
+      </c>
+      <c r="B46">
+        <v>216.21494894205608</v>
+      </c>
+      <c r="C46">
+        <v>29.99631530493824</v>
+      </c>
+      <c r="D46">
+        <v>0.9999738651855561</v>
+      </c>
+      <c r="E46">
+        <v>0.000906974792460883</v>
+      </c>
+      <c r="F46">
+        <v>0.007044094980676995</v>
+      </c>
+      <c r="G46">
+        <v>1.1604283438282936e-16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>244.51574610495487</v>
+      </c>
+      <c r="B47">
+        <v>213.00437710731202</v>
+      </c>
+      <c r="C47">
+        <v>29.99650666664449</v>
+      </c>
+      <c r="D47">
+        <v>0.999981687076179</v>
+      </c>
+      <c r="E47">
+        <v>0.0006813065600926871</v>
+      </c>
+      <c r="F47">
+        <v>0.005936157839904817</v>
+      </c>
+      <c r="G47">
+        <v>2.119386460080804e-16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>242.91820173382743</v>
+      </c>
+      <c r="B48">
+        <v>209.71119561183082</v>
+      </c>
+      <c r="C48">
+        <v>29.99736114471486</v>
+      </c>
+      <c r="D48">
+        <v>0.9999893719752083</v>
+      </c>
+      <c r="E48">
+        <v>0.00019800645097525066</v>
+      </c>
+      <c r="F48">
+        <v>0.004570956491401783</v>
+      </c>
+      <c r="G48">
+        <v>4.441706187601352e-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>240.80148231047224</v>
+      </c>
+      <c r="B49">
+        <v>206.79593345282777</v>
+      </c>
+      <c r="C49">
+        <v>29.99686455707883</v>
+      </c>
+      <c r="D49">
+        <v>0.9999827055066616</v>
+      </c>
+      <c r="E49">
+        <v>0.0016438079378975493</v>
+      </c>
+      <c r="F49">
+        <v>0.00557285366426177</v>
+      </c>
+      <c r="G49">
+        <v>-9.407277614126308e-17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>238.93091566190662</v>
+      </c>
+      <c r="B50">
+        <v>203.5785290425926</v>
+      </c>
+      <c r="C50">
+        <v>29.997815974453896</v>
+      </c>
+      <c r="D50">
+        <v>0.999994433244248</v>
+      </c>
+      <c r="E50">
+        <v>7.527648249933063e-5</v>
+      </c>
+      <c r="F50">
+        <v>0.0033222266332225848</v>
+      </c>
+      <c r="G50">
+        <v>5.053845193976367e-16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>236.3309004307729</v>
+      </c>
+      <c r="B51">
+        <v>201.09446176425797</v>
+      </c>
+      <c r="C51">
+        <v>29.999999606057273</v>
+      </c>
+      <c r="D51">
+        <v>0.9999801395713742</v>
+      </c>
+      <c r="E51">
+        <v>0.0029658507063184663</v>
+      </c>
+      <c r="F51">
+        <v>0.005464050310492689</v>
+      </c>
+      <c r="G51">
+        <v>-1.491150328733969e-17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>233.36188666976875</v>
+      </c>
+      <c r="B52">
+        <v>199.25050842905705</v>
+      </c>
+      <c r="C52">
+        <v>29.996296408252288</v>
+      </c>
+      <c r="D52">
+        <v>0.9999819120216699</v>
+      </c>
+      <c r="E52">
+        <v>0.00410969924893096</v>
+      </c>
+      <c r="F52">
+        <v>0.0048341424603374</v>
+      </c>
+      <c r="G52">
+        <v>-3.932727336355356e-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>230.48132513282462</v>
+      </c>
+      <c r="B53">
+        <v>196.99830564970003</v>
+      </c>
+      <c r="C53">
+        <v>29.99710920499097</v>
+      </c>
+      <c r="D53">
+        <v>0.9999897610226925</v>
+      </c>
+      <c r="E53">
+        <v>0.002073115179291842</v>
+      </c>
+      <c r="F53">
+        <v>0.003985042611485053</v>
+      </c>
+      <c r="G53">
+        <v>9.728756616692864e-17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>227.59710018262385</v>
+      </c>
+      <c r="B54">
+        <v>194.64975238569923</v>
+      </c>
+      <c r="C54">
+        <v>29.997607666719187</v>
+      </c>
+      <c r="D54">
+        <v>0.9999944883620818</v>
+      </c>
+      <c r="E54">
+        <v>0.0012131727698402525</v>
+      </c>
+      <c r="F54">
+        <v>0.0030761009439834886</v>
+      </c>
+      <c r="G54">
+        <v>-1.5622602446101417e-16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>224.6126755636303</v>
+      </c>
+      <c r="B55">
+        <v>192.3788872284186</v>
+      </c>
+      <c r="C55">
+        <v>29.999999700377074</v>
+      </c>
+      <c r="D55">
+        <v>0.9999953494905454</v>
+      </c>
+      <c r="E55">
+        <v>0.0012444757582379382</v>
+      </c>
+      <c r="F55">
+        <v>0.0027729531977434187</v>
+      </c>
+      <c r="G55">
+        <v>-8.426141285697074e-16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>225.08283032928242</v>
+      </c>
+      <c r="B56">
+        <v>189.36958959878535</v>
+      </c>
+      <c r="C56">
+        <v>29.993825341093793</v>
+      </c>
+      <c r="D56">
+        <v>0.9999535448827578</v>
+      </c>
+      <c r="E56">
+        <v>-0.00164147947194348</v>
+      </c>
+      <c r="F56">
+        <v>-0.009651912608408062</v>
+      </c>
+      <c r="G56">
+        <v>-1.4489438001401014e-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>224.39043318072228</v>
+      </c>
+      <c r="B57">
+        <v>185.89329445864482</v>
+      </c>
+      <c r="C57">
+        <v>29.99720092555236</v>
+      </c>
+      <c r="D57">
+        <v>0.9999848053130777</v>
+      </c>
+      <c r="E57">
+        <v>-0.003358917813291307</v>
+      </c>
+      <c r="F57">
+        <v>-0.0042971818826602285</v>
+      </c>
+      <c r="G57">
+        <v>-2.691194844668337e-16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>224.072520574103</v>
+      </c>
+      <c r="B58">
+        <v>182.3572678820974</v>
+      </c>
+      <c r="C58">
+        <v>29.997226938924445</v>
+      </c>
+      <c r="D58">
+        <v>0.9999843447977558</v>
+      </c>
+      <c r="E58">
+        <v>-0.0028087054224457744</v>
+      </c>
+      <c r="F58">
+        <v>-0.004768035056146341</v>
+      </c>
+      <c r="G58">
+        <v>-3.616126059242866e-16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>224.24788308643915</v>
+      </c>
+      <c r="B59">
+        <v>178.83197428022498</v>
+      </c>
+      <c r="C59">
+        <v>29.99663582583899</v>
+      </c>
+      <c r="D59">
+        <v>0.9999813722168586</v>
+      </c>
+      <c r="E59">
+        <v>-0.0021299864618331173</v>
+      </c>
+      <c r="F59">
+        <v>-0.005635931412049561</v>
+      </c>
+      <c r="G59">
+        <v>-7.157277703020306e-16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>224.84510781299272</v>
+      </c>
+      <c r="B60">
+        <v>175.3615013223715</v>
+      </c>
+      <c r="C60">
+        <v>29.99666517921085</v>
+      </c>
+      <c r="D60">
+        <v>0.9999804243571047</v>
+      </c>
+      <c r="E60">
+        <v>-0.0014240227429033374</v>
+      </c>
+      <c r="F60">
+        <v>-0.006005908140901746</v>
+      </c>
+      <c r="G60">
+        <v>-2.7318670727479225e-16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>225.98818646108498</v>
+      </c>
+      <c r="B61">
+        <v>172.07870965384052</v>
+      </c>
+      <c r="C61">
+        <v>29.996282282604273</v>
+      </c>
+      <c r="D61">
+        <v>0.9999761098222639</v>
+      </c>
+      <c r="E61">
+        <v>-0.00035747522820519357</v>
+      </c>
+      <c r="F61">
+        <v>-0.006790785494506825</v>
+      </c>
+      <c r="G61">
+        <v>7.565265437804474e-16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>226.74730923296775</v>
+      </c>
+      <c r="B62">
+        <v>168.5227278043908</v>
+      </c>
+      <c r="C62">
+        <v>29.997566879370897</v>
+      </c>
+      <c r="D62">
+        <v>0.9999920956498809</v>
+      </c>
+      <c r="E62">
+        <v>-0.0013525249919358372</v>
+      </c>
+      <c r="F62">
+        <v>-0.0037146590626876905</v>
+      </c>
+      <c r="G62">
+        <v>2.950077671269805e-17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>226.63342667033723</v>
+      </c>
+      <c r="B63">
+        <v>164.7970448711512</v>
+      </c>
+      <c r="C63">
+        <v>29.997636258203418</v>
+      </c>
+      <c r="D63">
+        <v>0.9999983674801382</v>
+      </c>
+      <c r="E63">
+        <v>-0.0017080430175158718</v>
+      </c>
+      <c r="F63">
+        <v>0.0005828108186395882</v>
+      </c>
+      <c r="G63">
+        <v>-5.461932650897915e-16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>226.36243078681414</v>
+      </c>
+      <c r="B64">
+        <v>161.0447927602918</v>
+      </c>
+      <c r="C64">
+        <v>29.997713972607666</v>
+      </c>
+      <c r="D64">
+        <v>0.999998418979325</v>
+      </c>
+      <c r="E64">
+        <v>-0.0014195213610595182</v>
+      </c>
+      <c r="F64">
+        <v>0.0010674904542595366</v>
+      </c>
+      <c r="G64">
+        <v>-2.2091591367048025e-16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>226.62460056910476</v>
+      </c>
+      <c r="B65">
+        <v>157.26252944117638</v>
+      </c>
+      <c r="C65">
+        <v>29.99757326445274</v>
+      </c>
+      <c r="D65">
+        <v>0.9999984465239341</v>
+      </c>
+      <c r="E65">
+        <v>-0.001210642783810481</v>
+      </c>
+      <c r="F65">
+        <v>-0.0012783136513566263</v>
+      </c>
+      <c r="G65">
+        <v>2.8373419645329676e-16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>226.5212716309464</v>
+      </c>
+      <c r="B66">
+        <v>153.43894548625036</v>
+      </c>
+      <c r="C66">
+        <v>29.997626416260236</v>
+      </c>
+      <c r="D66">
+        <v>0.9999992965057402</v>
+      </c>
+      <c r="E66">
+        <v>-0.0010945106517850239</v>
+      </c>
+      <c r="F66">
+        <v>0.00045557690643053834</v>
+      </c>
+      <c r="G66">
+        <v>1.8977897315469858e-16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>226.60371491997162</v>
+      </c>
+      <c r="B67">
+        <v>149.59010958374512</v>
+      </c>
+      <c r="C67">
+        <v>29.997453429996476</v>
+      </c>
+      <c r="D67">
+        <v>0.9999994837189516</v>
+      </c>
+      <c r="E67">
+        <v>-0.000941603357293444</v>
+      </c>
+      <c r="F67">
+        <v>-0.00038097826897044696</v>
+      </c>
+      <c r="G67">
+        <v>6.449326843300759e-16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>226.57227634327774</v>
+      </c>
+      <c r="B68">
+        <v>146.29975967076876</v>
+      </c>
+      <c r="C68">
+        <v>16.500221388536346</v>
+      </c>
+      <c r="D68">
+        <v>0.952579748960846</v>
+      </c>
+      <c r="E68">
+        <v>0.038900883132272836</v>
+      </c>
+      <c r="F68">
+        <v>0.027279164360704888</v>
+      </c>
+      <c r="G68">
+        <v>0.29993768290208134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>226.00080345104266</v>
+      </c>
+      <c r="B69">
+        <v>142.88428282195807</v>
+      </c>
+      <c r="C69">
+        <v>9.501505509680316</v>
+      </c>
+      <c r="D69">
+        <v>0.9993409177578111</v>
+      </c>
+      <c r="E69">
+        <v>-0.014475485607452305</v>
+      </c>
+      <c r="F69">
+        <v>-0.033739641250229865</v>
+      </c>
+      <c r="G69">
+        <v>4.203875485229402e-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>223.85949049913555</v>
+      </c>
+      <c r="B70">
+        <v>140.05600817266674</v>
+      </c>
+      <c r="C70">
+        <v>8.43300291593763</v>
+      </c>
+      <c r="D70">
+        <v>0.999965937413873</v>
+      </c>
+      <c r="E70">
+        <v>0.0030097462273243926</v>
+      </c>
+      <c r="F70">
+        <v>0.007746831359134636</v>
+      </c>
+      <c r="G70">
+        <v>1.8306563353160888e-6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>221.55069726949833</v>
+      </c>
+      <c r="B71">
+        <v>137.3555866009253</v>
+      </c>
+      <c r="C71">
+        <v>9.13828864519336</v>
+      </c>
+      <c r="D71">
+        <v>0.9999876411838252</v>
+      </c>
+      <c r="E71">
+        <v>0.002106362635420525</v>
+      </c>
+      <c r="F71">
+        <v>0.004861594643051693</v>
+      </c>
+      <c r="G71">
+        <v>-3.915387995069411e-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>220.2844568902114</v>
+      </c>
+      <c r="B72">
+        <v>133.87861093897686</v>
+      </c>
+      <c r="C72">
+        <v>9.46985214353117</v>
+      </c>
+      <c r="D72">
+        <v>1.0000014120630782</v>
+      </c>
+      <c r="E72">
+        <v>0.0011351459577081723</v>
+      </c>
+      <c r="F72">
+        <v>-7.997940818168004e-5</v>
+      </c>
+      <c r="G72">
+        <v>-0.0003869490719011752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>219.2593810112685</v>
+      </c>
+      <c r="B73">
+        <v>130.29386416830414</v>
+      </c>
+      <c r="C73">
+        <v>9.694739220919848</v>
+      </c>
+      <c r="D73">
+        <v>1.0000016526330227</v>
+      </c>
+      <c r="E73">
+        <v>0.0005980339719293676</v>
+      </c>
+      <c r="F73">
+        <v>0.0003816902623385053</v>
+      </c>
+      <c r="G73">
+        <v>-0.00038084095144260116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>218.5226120298799</v>
+      </c>
+      <c r="B74">
+        <v>126.61752827489323</v>
+      </c>
+      <c r="C74">
+        <v>9.818226069333997</v>
+      </c>
+      <c r="D74">
+        <v>1.0000004919391987</v>
+      </c>
+      <c r="E74">
+        <v>-0.0002372443740508287</v>
+      </c>
+      <c r="F74">
+        <v>-0.0003065540050722615</v>
+      </c>
+      <c r="G74">
+        <v>-8.308191305274138e-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>217.7709678636995</v>
+      </c>
+      <c r="B75">
+        <v>122.91821343448734</v>
+      </c>
+      <c r="C75">
+        <v>9.897872805144104</v>
+      </c>
+      <c r="D75">
+        <v>1.0000016789522417</v>
+      </c>
+      <c r="E75">
+        <v>0.0002899896153182136</v>
+      </c>
+      <c r="F75">
+        <v>0.00033624008825066233</v>
+      </c>
+      <c r="G75">
+        <v>-0.0001240208275089687</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>217.14748491202738</v>
+      </c>
+      <c r="B76">
+        <v>119.17415978203931</v>
+      </c>
+      <c r="C76">
+        <v>9.999967236578593</v>
+      </c>
+      <c r="D76">
+        <v>1.0000012544059014</v>
+      </c>
+      <c r="E76">
+        <v>0.00018614384151039153</v>
+      </c>
+      <c r="F76">
+        <v>0.0002567461096102245</v>
+      </c>
+      <c r="G76">
+        <v>-9.035516349971314e-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>216.66390572360189</v>
+      </c>
+      <c r="B77">
+        <v>115.40909491209673</v>
+      </c>
+      <c r="C77">
+        <v>9.998091773254396</v>
+      </c>
+      <c r="D77">
+        <v>1.0000029274393631</v>
+      </c>
+      <c r="E77">
+        <v>0.0005721788115772954</v>
+      </c>
+      <c r="F77">
+        <v>0.001070457093756312</v>
+      </c>
+      <c r="G77">
+        <v>-0.000742862352465734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>216.3181659209492</v>
+      </c>
+      <c r="B78">
+        <v>111.61154058114981</v>
+      </c>
+      <c r="C78">
+        <v>9.997585173199626</v>
+      </c>
+      <c r="D78">
+        <v>0.999998408449596</v>
+      </c>
+      <c r="E78">
+        <v>0.00011838774835469924</v>
+      </c>
+      <c r="F78">
+        <v>0.00027376019232689254</v>
+      </c>
+      <c r="G78">
+        <v>0.001471150500576198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>218.41466764761265</v>
+      </c>
+      <c r="B79">
+        <v>109.5028656330362</v>
+      </c>
+      <c r="C79">
+        <v>9.993372072771434</v>
+      </c>
+      <c r="D79">
+        <v>0.9999108848829749</v>
+      </c>
+      <c r="E79">
+        <v>0.006010562476097648</v>
+      </c>
+      <c r="F79">
+        <v>-0.011181691860683733</v>
+      </c>
+      <c r="G79">
+        <v>-2.633997180253016e-16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>220.79893345064625</v>
+      </c>
+      <c r="B80">
+        <v>108.84279441324406</v>
+      </c>
+      <c r="C80">
+        <v>9.991308938743602</v>
+      </c>
+      <c r="D80">
+        <v>0.9998821180836245</v>
+      </c>
+      <c r="E80">
+        <v>0.010496430420439035</v>
+      </c>
+      <c r="F80">
+        <v>-0.00992128497438691</v>
+      </c>
+      <c r="G80">
+        <v>1.321205943947678e-15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>223.32919478782156</v>
+      </c>
+      <c r="B81">
+        <v>108.62803443786247</v>
+      </c>
+      <c r="C81">
+        <v>9.999967410459767</v>
+      </c>
+      <c r="D81">
+        <v>0.9999418626293111</v>
+      </c>
+      <c r="E81">
+        <v>0.008309210138964072</v>
+      </c>
+      <c r="F81">
+        <v>-0.006938543432438778</v>
+      </c>
+      <c r="G81">
+        <v>1.3633035973595367e-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>226.03154082071097</v>
+      </c>
+      <c r="B82">
+        <v>108.64305049103797</v>
+      </c>
+      <c r="C82">
+        <v>9.994857781301272</v>
+      </c>
+      <c r="D82">
+        <v>0.9999592615413879</v>
+      </c>
+      <c r="E82">
+        <v>0.0071364228867876805</v>
+      </c>
+      <c r="F82">
+        <v>-0.005893155066073543</v>
+      </c>
+      <c r="G82">
+        <v>3.0884051377517767e-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>228.80583763006675</v>
+      </c>
+      <c r="B83">
+        <v>109.03662284873626</v>
+      </c>
+      <c r="C83">
+        <v>9.994935957578248</v>
+      </c>
+      <c r="D83">
+        <v>0.9999482125330041</v>
+      </c>
+      <c r="E83">
+        <v>0.008049386109720683</v>
+      </c>
+      <c r="F83">
+        <v>-0.0056880494265607595</v>
+      </c>
+      <c r="G83">
+        <v>-1.0652411987890592e-15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>231.51588514110344</v>
+      </c>
+      <c r="B84">
+        <v>109.9466175481794</v>
+      </c>
+      <c r="C84">
+        <v>9.995751612039452</v>
+      </c>
+      <c r="D84">
+        <v>0.9999549810668394</v>
+      </c>
+      <c r="E84">
+        <v>0.008246743420966356</v>
+      </c>
+      <c r="F84">
+        <v>-0.004126340120450529</v>
+      </c>
+      <c r="G84">
+        <v>-1.013847827644799e-15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>234.20589543794284</v>
+      </c>
+      <c r="B85">
+        <v>111.19019272851486</v>
+      </c>
+      <c r="C85">
+        <v>9.996222812968046</v>
+      </c>
+      <c r="D85">
+        <v>0.9999639157305068</v>
+      </c>
+      <c r="E85">
+        <v>0.007693194459836659</v>
+      </c>
+      <c r="F85">
+        <v>-0.0031086182022438315</v>
+      </c>
+      <c r="G85">
+        <v>8.907334592924783e-16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>237.47036056126856</v>
+      </c>
+      <c r="B86">
+        <v>111.23787270388449</v>
+      </c>
+      <c r="C86">
+        <v>9.998158809735562</v>
+      </c>
+      <c r="D86">
+        <v>0.999988227437945</v>
+      </c>
+      <c r="E86">
+        <v>0.0011946386403082153</v>
+      </c>
+      <c r="F86">
+        <v>-0.004661120018326708</v>
+      </c>
+      <c r="G86">
+        <v>-3.6668768323709947e-16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>240.14657862011578</v>
+      </c>
+      <c r="B87">
+        <v>109.44035455998751</v>
+      </c>
+      <c r="C87">
+        <v>9.999999999487988</v>
+      </c>
+      <c r="D87">
+        <v>0.9999988272495617</v>
+      </c>
+      <c r="E87">
+        <v>-0.0033287995764514616</v>
+      </c>
+      <c r="F87">
+        <v>-0.0006655174395906508</v>
+      </c>
+      <c r="G87">
+        <v>4.823303294953767e-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>242.34598962372587</v>
+      </c>
+      <c r="B88">
+        <v>107.09473712895868</v>
+      </c>
+      <c r="C88">
+        <v>9.999976899229859</v>
+      </c>
+      <c r="D88">
+        <v>0.999983829536488</v>
+      </c>
+      <c r="E88">
+        <v>-0.005927500927540097</v>
+      </c>
+      <c r="F88">
+        <v>0.0007839570998789793</v>
+      </c>
+      <c r="G88">
+        <v>2.152736398837221e-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>245.01224715489604</v>
+      </c>
+      <c r="B89">
+        <v>105.16080375771938</v>
+      </c>
+      <c r="C89">
+        <v>9.999975769133245</v>
+      </c>
+      <c r="D89">
+        <v>0.9999957317720941</v>
+      </c>
+      <c r="E89">
+        <v>-0.005317553497242942</v>
+      </c>
+      <c r="F89">
+        <v>-0.0016952492223490689</v>
+      </c>
+      <c r="G89">
+        <v>0.005758388425076848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>247.98553552677038</v>
+      </c>
+      <c r="B90">
+        <v>103.5984507567265</v>
+      </c>
+      <c r="C90">
+        <v>9.999740093839316</v>
+      </c>
+      <c r="D90">
+        <v>1.0000010011424116</v>
+      </c>
+      <c r="E90">
+        <v>0.0006200675975723938</v>
+      </c>
+      <c r="F90">
+        <v>0.0008594700424384478</v>
+      </c>
+      <c r="G90">
+        <v>0.000947196330017439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>250.63737106310458</v>
+      </c>
+      <c r="B91">
+        <v>101.52505108214565</v>
+      </c>
+      <c r="C91">
+        <v>9.999979049009525</v>
+      </c>
+      <c r="D91">
+        <v>1.0000020714458984</v>
+      </c>
+      <c r="E91">
+        <v>0.00019037479975999715</v>
+      </c>
+      <c r="F91">
+        <v>-2.391993301611867e-5</v>
+      </c>
+      <c r="G91">
+        <v>9.269182091543713e-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>253.24799973542983</v>
+      </c>
+      <c r="B92">
+        <v>99.28051713560743</v>
+      </c>
+      <c r="C92">
+        <v>9.9997034882738</v>
+      </c>
+      <c r="D92">
+        <v>1.0000007115621008</v>
+      </c>
+      <c r="E92">
+        <v>0.00030730929448256655</v>
+      </c>
+      <c r="F92">
+        <v>-8.918061326023187e-6</v>
+      </c>
+      <c r="G92">
+        <v>0.0001913872011478347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>256.14807195019296</v>
+      </c>
+      <c r="B93">
+        <v>97.26361615807728</v>
+      </c>
+      <c r="C93">
+        <v>9.999975374445764</v>
+      </c>
+      <c r="D93">
+        <v>1.0000016228564204</v>
+      </c>
+      <c r="E93">
+        <v>0.0009331264075138067</v>
+      </c>
+      <c r="F93">
+        <v>0.0007478881216315401</v>
+      </c>
+      <c r="G93">
+        <v>0.0003541596881290273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>259.63522708861996</v>
+      </c>
+      <c r="B94">
+        <v>96.7536235811521</v>
+      </c>
+      <c r="C94">
+        <v>9.999847234101033</v>
+      </c>
+      <c r="D94">
+        <v>0.9999900367805096</v>
+      </c>
+      <c r="E94">
+        <v>0.003947754721796518</v>
+      </c>
+      <c r="F94">
+        <v>-0.002709188994871253</v>
+      </c>
+      <c r="G94">
+        <v>0.00019330066419737574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>263.18900538371673</v>
+      </c>
+      <c r="B95">
+        <v>96.43897539967791</v>
+      </c>
+      <c r="C95">
+        <v>9.999984171974656</v>
+      </c>
+      <c r="D95">
+        <v>0.9999935087988132</v>
+      </c>
+      <c r="E95">
+        <v>0.0036796398528940307</v>
+      </c>
+      <c r="F95">
+        <v>-0.002301624820910849</v>
+      </c>
+      <c r="G95">
+        <v>-3.062222229793318e-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>266.6359991943907</v>
+      </c>
+      <c r="B96">
+        <v>95.24001657687008</v>
+      </c>
+      <c r="C96">
+        <v>9.999364214278472</v>
+      </c>
+      <c r="D96">
+        <v>0.999996520292208</v>
+      </c>
+      <c r="E96">
+        <v>8.025815081242203e-5</v>
+      </c>
+      <c r="F96">
+        <v>0.0011056299188122636</v>
+      </c>
+      <c r="G96">
+        <v>0.002267978648421875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>269.8349652619401</v>
+      </c>
+      <c r="B97">
+        <v>93.50246386263466</v>
+      </c>
+      <c r="C97">
+        <v>9.99997597962311</v>
+      </c>
+      <c r="D97">
+        <v>1.0000020056355607</v>
+      </c>
+      <c r="E97">
+        <v>0.0011349745582891041</v>
+      </c>
+      <c r="F97">
+        <v>0.00014961441300243532</v>
+      </c>
+      <c r="G97">
+        <v>0.0008408419830990254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>273.05693987454026</v>
+      </c>
+      <c r="B98">
+        <v>91.75573832365006</v>
+      </c>
+      <c r="C98">
+        <v>9.99859369545795</v>
+      </c>
+      <c r="D98">
+        <v>1.0000023951443195</v>
+      </c>
+      <c r="E98">
+        <v>0.0027272278303506234</v>
+      </c>
+      <c r="F98">
+        <v>0.0005184751292701388</v>
+      </c>
+      <c r="G98">
+        <v>0.0011700677240164595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>276.40679682052854</v>
+      </c>
+      <c r="B99">
+        <v>90.299290709879</v>
+      </c>
+      <c r="C99">
+        <v>9.999999999163137</v>
+      </c>
+      <c r="D99">
+        <v>1.000004300231876</v>
+      </c>
+      <c r="E99">
+        <v>0.0007635254333535602</v>
+      </c>
+      <c r="F99">
+        <v>0.0028205967891144954</v>
+      </c>
+      <c r="G99">
+        <v>0.0003822569666555656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>280.0052747634986</v>
+      </c>
+      <c r="B100">
+        <v>89.5517453408707</v>
+      </c>
+      <c r="C100">
+        <v>9.998568395867549</v>
+      </c>
+      <c r="D100">
+        <v>1.0000061368438016</v>
+      </c>
+      <c r="E100">
+        <v>-0.0003569086102611144</v>
+      </c>
+      <c r="F100">
+        <v>0.00015014769300558353</v>
+      </c>
+      <c r="G100">
+        <v>-0.0012298428890654117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>283.5950109135181</v>
+      </c>
+      <c r="B101">
+        <v>88.63780446382778</v>
+      </c>
+      <c r="C101">
+        <v>9.997904959310052</v>
+      </c>
+      <c r="D101">
+        <v>1.0000061283307338</v>
+      </c>
+      <c r="E101">
+        <v>-0.003615161535692366</v>
+      </c>
+      <c r="F101">
+        <v>0.0032060678919467946</v>
+      </c>
+      <c r="G101">
+        <v>0.003987865478560988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>287.34502650655634</v>
+      </c>
+      <c r="B102">
+        <v>88.07424612811393</v>
+      </c>
+      <c r="C102">
+        <v>9.999999751437292</v>
+      </c>
+      <c r="D102">
+        <v>0.9999956993913696</v>
+      </c>
+      <c r="E102">
+        <v>0.0024665289343896836</v>
+      </c>
+      <c r="F102">
+        <v>-0.0015695131561817436</v>
+      </c>
+      <c r="G102">
+        <v>1.8759353385220907e-19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>290.00599784452646</v>
+      </c>
+      <c r="B103">
+        <v>87.3045351762837</v>
+      </c>
+      <c r="C103">
+        <v>12.968667195777618</v>
+      </c>
+      <c r="D103">
+        <v>0.9999985244235937</v>
+      </c>
+      <c r="E103">
+        <v>0.0004463141230139084</v>
+      </c>
+      <c r="F103">
+        <v>0.001299090471423284</v>
+      </c>
+      <c r="G103">
+        <v>0.0001398712719196787</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>291.54792190833047</v>
+      </c>
+      <c r="B104">
+        <v>87.0593608703035</v>
+      </c>
+      <c r="C104">
+        <v>16.878210814783554</v>
+      </c>
+      <c r="D104">
+        <v>0.9999826879075346</v>
+      </c>
+      <c r="E104">
+        <v>0.002450164267110718</v>
+      </c>
+      <c r="F104">
+        <v>0.005700502939452411</v>
+      </c>
+      <c r="G104">
+        <v>-4.271864546064277e-6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>293.4813596078324</v>
+      </c>
+      <c r="B105">
+        <v>85.96680488904643</v>
+      </c>
+      <c r="C105">
+        <v>20.518610931356662</v>
+      </c>
+      <c r="D105">
+        <v>0.9999944035968839</v>
+      </c>
+      <c r="E105">
+        <v>-0.0009331943805796047</v>
+      </c>
+      <c r="F105">
+        <v>0.0025928675152298076</v>
+      </c>
+      <c r="G105">
+        <v>0.0010003721786218595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>294.7431572255576</v>
+      </c>
+      <c r="B106">
+        <v>83.80595726546451</v>
+      </c>
+      <c r="C106">
+        <v>23.3021677411447</v>
+      </c>
+      <c r="D106">
+        <v>0.9999822820770159</v>
+      </c>
+      <c r="E106">
+        <v>-0.004375813346356837</v>
+      </c>
+      <c r="F106">
+        <v>0.004523978469054199</v>
+      </c>
+      <c r="G106">
+        <v>-1.9801577912140407e-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>295.5099246857192</v>
+      </c>
+      <c r="B107">
+        <v>81.20468416129822</v>
+      </c>
+      <c r="C107">
+        <v>25.343807117277724</v>
+      </c>
+      <c r="D107">
+        <v>0.9999769092215961</v>
+      </c>
+      <c r="E107">
+        <v>-0.004877174863271433</v>
+      </c>
+      <c r="F107">
+        <v>0.005173192799567658</v>
+      </c>
+      <c r="G107">
+        <v>-2.81601036730702e-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>295.6717446072186</v>
+      </c>
+      <c r="B108">
+        <v>78.40025761241974</v>
+      </c>
+      <c r="C108">
+        <v>26.81416764957705</v>
+      </c>
+      <c r="D108">
+        <v>0.9999737677265835</v>
+      </c>
+      <c r="E108">
+        <v>-0.00448631560865113</v>
+      </c>
+      <c r="F108">
+        <v>0.006050256867415256</v>
+      </c>
+      <c r="G108">
+        <v>-3.0131073507475253e-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>296.33249918657475</v>
+      </c>
+      <c r="B109">
+        <v>75.32787076480169</v>
+      </c>
+      <c r="C109">
+        <v>27.820103469105273</v>
+      </c>
+      <c r="D109">
+        <v>0.9999869377746237</v>
+      </c>
+      <c r="E109">
+        <v>-0.004468636098764028</v>
+      </c>
+      <c r="F109">
+        <v>0.003116125773157967</v>
+      </c>
+      <c r="G109">
+        <v>-1.188020309865319e-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>296.102333001861</v>
+      </c>
+      <c r="B110">
+        <v>72.22658630442383</v>
+      </c>
+      <c r="C110">
+        <v>28.56330600438533</v>
+      </c>
+      <c r="D110">
+        <v>0.9999812140956077</v>
+      </c>
+      <c r="E110">
+        <v>-0.0035391442109877873</v>
+      </c>
+      <c r="F110">
+        <v>0.005392918257176981</v>
+      </c>
+      <c r="G110">
+        <v>-1.6457952461668104e-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>295.6443378296247</v>
+      </c>
+      <c r="B111">
+        <v>69.05048529285379</v>
+      </c>
+      <c r="C111">
+        <v>29.15925276580935</v>
+      </c>
+      <c r="D111">
+        <v>0.9999850272260148</v>
+      </c>
+      <c r="E111">
+        <v>-0.0030039623659766576</v>
+      </c>
+      <c r="F111">
+        <v>0.004962782750668467</v>
+      </c>
+      <c r="G111">
+        <v>-1.1463727729629299e-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>295.51563994660654</v>
+      </c>
+      <c r="B112">
+        <v>65.78391901556431</v>
+      </c>
+      <c r="C112">
+        <v>29.53044911377512</v>
+      </c>
+      <c r="D112">
+        <v>0.9999914297538866</v>
+      </c>
+      <c r="E112">
+        <v>-0.0025465898068956815</v>
+      </c>
+      <c r="F112">
+        <v>0.0026909401736402716</v>
+      </c>
+      <c r="G112">
+        <v>0.0001494106078513357</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>295.17974539739265</v>
+      </c>
+      <c r="B113">
+        <v>62.44274961071604</v>
+      </c>
+      <c r="C113">
+        <v>29.747604114535857</v>
+      </c>
+      <c r="D113">
+        <v>0.9999928425503307</v>
+      </c>
+      <c r="E113">
+        <v>-0.0027390513799124797</v>
+      </c>
+      <c r="F113">
+        <v>0.0033105118551813714</v>
+      </c>
+      <c r="G113">
+        <v>-0.0008826313806639244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>294.6625015231435</v>
+      </c>
+      <c r="B114">
+        <v>59.07448231307984</v>
+      </c>
+      <c r="C114">
+        <v>29.8980894978668</v>
+      </c>
+      <c r="D114">
+        <v>0.9999938053416347</v>
+      </c>
+      <c r="E114">
+        <v>-0.002171967943746441</v>
+      </c>
+      <c r="F114">
+        <v>0.0031966146452629607</v>
+      </c>
+      <c r="G114">
+        <v>-0.00028291638577522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>293.38705619496073</v>
+      </c>
+      <c r="B115">
+        <v>55.8688934933253</v>
+      </c>
+      <c r="C115">
+        <v>29.99997279323949</v>
+      </c>
+      <c r="D115">
+        <v>0.9999893900029011</v>
+      </c>
+      <c r="E115">
+        <v>-0.0009547528937650403</v>
+      </c>
+      <c r="F115">
+        <v>0.004842345620679133</v>
+      </c>
+      <c r="G115">
+        <v>-5.935753526193521e-6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>291.5186206445951</v>
+      </c>
+      <c r="B116">
+        <v>53.02349046269316</v>
+      </c>
+      <c r="C116">
+        <v>29.997186796859058</v>
+      </c>
+      <c r="D116">
+        <v>0.9999857550444099</v>
+      </c>
+      <c r="E116">
+        <v>0.0004943948426867383</v>
+      </c>
+      <c r="F116">
+        <v>0.0056355602054820805</v>
+      </c>
+      <c r="G116">
+        <v>-5.898693834457381e-6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>290.19240437021995</v>
+      </c>
+      <c r="B117">
+        <v>49.68225212962615</v>
+      </c>
+      <c r="C117">
+        <v>29.99865286584296</v>
+      </c>
+      <c r="D117">
+        <v>0.9999943980374811</v>
+      </c>
+      <c r="E117">
+        <v>-0.001508053984900718</v>
+      </c>
+      <c r="F117">
+        <v>0.0029730384495957503</v>
+      </c>
+      <c r="G117">
+        <v>-9.340285248932373e-17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>288.432811632218</v>
+      </c>
+      <c r="B118">
+        <v>46.64291445554763</v>
+      </c>
+      <c r="C118">
+        <v>29.9975304127979</v>
+      </c>
+      <c r="D118">
+        <v>0.9999945021816594</v>
+      </c>
+      <c r="E118">
+        <v>4.013325971736398e-5</v>
+      </c>
+      <c r="F118">
+        <v>0.004917055662792276</v>
+      </c>
+      <c r="G118">
+        <v>-0.00014897980082791034</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>285.9579115442094</v>
+      </c>
+      <c r="B119">
+        <v>44.18539571160377</v>
+      </c>
+      <c r="C119">
+        <v>29.996407607064583</v>
+      </c>
+      <c r="D119">
+        <v>0.999978820297341</v>
+      </c>
+      <c r="E119">
+        <v>0.0023267146902513428</v>
+      </c>
+      <c r="F119">
+        <v>0.005977050336616392</v>
+      </c>
+      <c r="G119">
+        <v>-5.549878102092397e-16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>283.29534869637394</v>
+      </c>
+      <c r="B120">
+        <v>41.874967321081904</v>
+      </c>
+      <c r="C120">
+        <v>29.996767043493914</v>
+      </c>
+      <c r="D120">
+        <v>0.9999824887917156</v>
+      </c>
+      <c r="E120">
+        <v>0.0023720751845914016</v>
+      </c>
+      <c r="F120">
+        <v>0.005342851992145507</v>
+      </c>
+      <c r="G120">
+        <v>-3.349910133133141e-16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>280.2895631476044</v>
+      </c>
+      <c r="B121">
+        <v>40.16999461990082</v>
+      </c>
+      <c r="C121">
+        <v>29.996263540229517</v>
+      </c>
+      <c r="D121">
+        <v>0.9999752712701989</v>
+      </c>
+      <c r="E121">
+        <v>0.004221164003483267</v>
+      </c>
+      <c r="F121">
+        <v>0.005476900281851636</v>
+      </c>
+      <c r="G121">
+        <v>-2.886061832792082e-16</v>
       </c>
     </row>
   </sheetData>
